--- a/1000words.xlsx
+++ b/1000words.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\литовский\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lietuvu kalba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DFEE98-DA12-4D5A-A6FD-3A602225AF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6126EA27-BF54-4900-A5DB-6FBDA63F00AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ED8D6A50-C47E-4E0C-94C3-877F69A04D9B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4337" uniqueCount="2549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4882" uniqueCount="3082">
   <si>
     <t>atiduOti</t>
   </si>
@@ -8412,6 +8412,1605 @@
   </si>
   <si>
     <t>Июнь</t>
+  </si>
+  <si>
+    <t>Большинство</t>
+  </si>
+  <si>
+    <t>Республика</t>
+  </si>
+  <si>
+    <t>Порт</t>
+  </si>
+  <si>
+    <t>Водитель</t>
+  </si>
+  <si>
+    <t>Парк</t>
+  </si>
+  <si>
+    <t>Мероприятие</t>
+  </si>
+  <si>
+    <t>Постоянно</t>
+  </si>
+  <si>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>Фото</t>
+  </si>
+  <si>
+    <t>Стена</t>
+  </si>
+  <si>
+    <t>Безопасность</t>
+  </si>
+  <si>
+    <t>Замечать</t>
+  </si>
+  <si>
+    <t>Искать</t>
+  </si>
+  <si>
+    <t>Сообщение</t>
+  </si>
+  <si>
+    <t>Уровень</t>
+  </si>
+  <si>
+    <t>До сих пор</t>
+  </si>
+  <si>
+    <t>Автор</t>
+  </si>
+  <si>
+    <t>Долг</t>
+  </si>
+  <si>
+    <t>Магазин</t>
+  </si>
+  <si>
+    <t>Утро</t>
+  </si>
+  <si>
+    <t>Май</t>
+  </si>
+  <si>
+    <t>Библиотека</t>
+  </si>
+  <si>
+    <t>Игра</t>
+  </si>
+  <si>
+    <t>Транспорт</t>
+  </si>
+  <si>
+    <t>Апрель, Голубь</t>
+  </si>
+  <si>
+    <t>Строительство, стройка</t>
+  </si>
+  <si>
+    <t>Связь</t>
+  </si>
+  <si>
+    <t>Август</t>
+  </si>
+  <si>
+    <t>Сила</t>
+  </si>
+  <si>
+    <t>Легко</t>
+  </si>
+  <si>
+    <t>Смерть</t>
+  </si>
+  <si>
+    <t>Компания</t>
+  </si>
+  <si>
+    <t>Образование</t>
+  </si>
+  <si>
+    <t>Мама</t>
+  </si>
+  <si>
+    <t>Выборы</t>
+  </si>
+  <si>
+    <t>Лекарство</t>
+  </si>
+  <si>
+    <t>Пара</t>
+  </si>
+  <si>
+    <t>Песня</t>
+  </si>
+  <si>
+    <t>Новость</t>
+  </si>
+  <si>
+    <t>Ночь</t>
+  </si>
+  <si>
+    <t>Латвия</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Регион</t>
+  </si>
+  <si>
+    <t>Баскетбол</t>
+  </si>
+  <si>
+    <t>Появиться</t>
+  </si>
+  <si>
+    <t>To appear</t>
+  </si>
+  <si>
+    <t>Будто</t>
+  </si>
+  <si>
+    <t>As though</t>
+  </si>
+  <si>
+    <t>Ценить</t>
+  </si>
+  <si>
+    <t>Объявлять</t>
+  </si>
+  <si>
+    <t>To announce</t>
+  </si>
+  <si>
+    <t>Космос</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>Поменять</t>
+  </si>
+  <si>
+    <t>Оценивать</t>
+  </si>
+  <si>
+    <t>To assess</t>
+  </si>
+  <si>
+    <t>Производство</t>
+  </si>
+  <si>
+    <t>Отвечать</t>
+  </si>
+  <si>
+    <t>Фонд</t>
+  </si>
+  <si>
+    <t>Музей</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Квартира</t>
+  </si>
+  <si>
+    <t>Управление</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Простой</t>
+  </si>
+  <si>
+    <t>Подарок</t>
+  </si>
+  <si>
+    <t>В этом году</t>
+  </si>
+  <si>
+    <t>Экономика</t>
+  </si>
+  <si>
+    <t>Забота</t>
+  </si>
+  <si>
+    <t>Никогда</t>
+  </si>
+  <si>
+    <t>Гарантировать</t>
+  </si>
+  <si>
+    <t>Влияние</t>
+  </si>
+  <si>
+    <t>Фестиваль</t>
+  </si>
+  <si>
+    <t>Достаточно</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Третий</t>
+  </si>
+  <si>
+    <t>Похожий</t>
+  </si>
+  <si>
+    <t>Желание</t>
+  </si>
+  <si>
+    <t>Интересный</t>
+  </si>
+  <si>
+    <t>Девочка</t>
+  </si>
+  <si>
+    <t>Красивый</t>
+  </si>
+  <si>
+    <t>Корабль</t>
+  </si>
+  <si>
+    <t>Финансовый</t>
+  </si>
+  <si>
+    <t>Заканчивать</t>
+  </si>
+  <si>
+    <t>Платить</t>
+  </si>
+  <si>
+    <t>Сумма</t>
+  </si>
+  <si>
+    <t>Поле</t>
+  </si>
+  <si>
+    <t>Тысяча</t>
+  </si>
+  <si>
+    <t>Доход</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Минута</t>
+  </si>
+  <si>
+    <t>Люди</t>
+  </si>
+  <si>
+    <t>People</t>
+  </si>
+  <si>
+    <t>Ответ</t>
+  </si>
+  <si>
+    <t>Среда</t>
+  </si>
+  <si>
+    <t>Пациент</t>
+  </si>
+  <si>
+    <t>Бог</t>
+  </si>
+  <si>
+    <t>God</t>
+  </si>
+  <si>
+    <t>Читать</t>
+  </si>
+  <si>
+    <t>Столица</t>
+  </si>
+  <si>
+    <t>Событие</t>
+  </si>
+  <si>
+    <t>Отец</t>
+  </si>
+  <si>
+    <t>Мэр</t>
+  </si>
+  <si>
+    <t>Потреблять</t>
+  </si>
+  <si>
+    <t>To consume</t>
+  </si>
+  <si>
+    <t>Объект</t>
+  </si>
+  <si>
+    <t>Телевидение</t>
+  </si>
+  <si>
+    <t>Национальный</t>
+  </si>
+  <si>
+    <t>Личный</t>
+  </si>
+  <si>
+    <t>Лицо</t>
+  </si>
+  <si>
+    <t>Нога</t>
+  </si>
+  <si>
+    <t>Смотреть</t>
+  </si>
+  <si>
+    <t>Округ, область</t>
+  </si>
+  <si>
+    <t>Функция</t>
+  </si>
+  <si>
+    <t>Единственный</t>
+  </si>
+  <si>
+    <t>Больница</t>
+  </si>
+  <si>
+    <t>Владелец</t>
+  </si>
+  <si>
+    <t>Чем</t>
+  </si>
+  <si>
+    <t>Традиция</t>
+  </si>
+  <si>
+    <t>Запад</t>
+  </si>
+  <si>
+    <t>Зима</t>
+  </si>
+  <si>
+    <t>Животное</t>
+  </si>
+  <si>
+    <t>Футбол</t>
+  </si>
+  <si>
+    <t>Голос</t>
+  </si>
+  <si>
+    <t>Литовский</t>
+  </si>
+  <si>
+    <t>Христос</t>
+  </si>
+  <si>
+    <t>Christ</t>
+  </si>
+  <si>
+    <t>Строить</t>
+  </si>
+  <si>
+    <t>Четыре</t>
+  </si>
+  <si>
+    <t>Бизнесмен</t>
+  </si>
+  <si>
+    <t>Процент</t>
+  </si>
+  <si>
+    <t>Здоровый</t>
+  </si>
+  <si>
+    <t>Позиция</t>
+  </si>
+  <si>
+    <t>Окно</t>
+  </si>
+  <si>
+    <t>Экономический</t>
+  </si>
+  <si>
+    <t>Вернуться</t>
+  </si>
+  <si>
+    <t>To come back</t>
+  </si>
+  <si>
+    <t>Гимназия</t>
+  </si>
+  <si>
+    <t>Звонить</t>
+  </si>
+  <si>
+    <t>Подтверждать</t>
+  </si>
+  <si>
+    <t>To approve</t>
+  </si>
+  <si>
+    <t>America</t>
+  </si>
+  <si>
+    <t>Америка</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Франция</t>
+  </si>
+  <si>
+    <t>Молоко</t>
+  </si>
+  <si>
+    <t>Жена</t>
+  </si>
+  <si>
+    <t>Предел</t>
+  </si>
+  <si>
+    <t>Кровь</t>
+  </si>
+  <si>
+    <t>Литература</t>
+  </si>
+  <si>
+    <t>Почему, кому</t>
+  </si>
+  <si>
+    <t>Длинный</t>
+  </si>
+  <si>
+    <t>Священник</t>
+  </si>
+  <si>
+    <t>Комитет</t>
+  </si>
+  <si>
+    <t>Полезный</t>
+  </si>
+  <si>
+    <t>Просить</t>
+  </si>
+  <si>
+    <t>Зритель</t>
+  </si>
+  <si>
+    <t>Стол</t>
+  </si>
+  <si>
+    <t>Ученый</t>
+  </si>
+  <si>
+    <t>Менять</t>
+  </si>
+  <si>
+    <t>Давать</t>
+  </si>
+  <si>
+    <t>Электронный</t>
+  </si>
+  <si>
+    <t>Примерно</t>
+  </si>
+  <si>
+    <t>Звук</t>
+  </si>
+  <si>
+    <t>Ехать</t>
+  </si>
+  <si>
+    <t>Компьютер</t>
+  </si>
+  <si>
+    <t>Техника</t>
+  </si>
+  <si>
+    <t>Трафик</t>
+  </si>
+  <si>
+    <t>Практика</t>
+  </si>
+  <si>
+    <t>Свобода</t>
+  </si>
+  <si>
+    <t>К сожалению</t>
+  </si>
+  <si>
+    <t>Зона</t>
+  </si>
+  <si>
+    <t>Медицина</t>
+  </si>
+  <si>
+    <t>Понедельник</t>
+  </si>
+  <si>
+    <t>Прийти</t>
+  </si>
+  <si>
+    <t>Разработка</t>
+  </si>
+  <si>
+    <t>Растение</t>
+  </si>
+  <si>
+    <t>Источник</t>
+  </si>
+  <si>
+    <t>Свет</t>
+  </si>
+  <si>
+    <t>Администрация</t>
+  </si>
+  <si>
+    <t>Русский</t>
+  </si>
+  <si>
+    <t>Разновидность</t>
+  </si>
+  <si>
+    <t>Наблюдать</t>
+  </si>
+  <si>
+    <t>Думать</t>
+  </si>
+  <si>
+    <t>Читатель</t>
+  </si>
+  <si>
+    <t>Метр</t>
+  </si>
+  <si>
+    <t>Дверь</t>
+  </si>
+  <si>
+    <t>Факт</t>
+  </si>
+  <si>
+    <t>Купить</t>
+  </si>
+  <si>
+    <t>Особенный</t>
+  </si>
+  <si>
+    <t>Осень</t>
+  </si>
+  <si>
+    <t>Покупка</t>
+  </si>
+  <si>
+    <t>Легкий</t>
+  </si>
+  <si>
+    <t>Мать</t>
+  </si>
+  <si>
+    <t>Текущий, настоящий</t>
+  </si>
+  <si>
+    <t>Живой</t>
+  </si>
+  <si>
+    <t>Линия</t>
+  </si>
+  <si>
+    <t>Производитель</t>
+  </si>
+  <si>
+    <t>Плохой</t>
+  </si>
+  <si>
+    <t>Вторник</t>
+  </si>
+  <si>
+    <t>Колесо</t>
+  </si>
+  <si>
+    <t>Городок</t>
+  </si>
+  <si>
+    <t>Совет</t>
+  </si>
+  <si>
+    <t>Возможный</t>
+  </si>
+  <si>
+    <t>Сын</t>
+  </si>
+  <si>
+    <t>Паланга</t>
+  </si>
+  <si>
+    <t>Сильный</t>
+  </si>
+  <si>
+    <t>Колено</t>
+  </si>
+  <si>
+    <t>Учиться</t>
+  </si>
+  <si>
+    <t>Суббота</t>
+  </si>
+  <si>
+    <t>Кушать</t>
+  </si>
+  <si>
+    <t>Температура</t>
+  </si>
+  <si>
+    <t>Кандидат</t>
+  </si>
+  <si>
+    <t>Интерес</t>
+  </si>
+  <si>
+    <t>Почта</t>
+  </si>
+  <si>
+    <t>Исторический</t>
+  </si>
+  <si>
+    <t>Письмо</t>
+  </si>
+  <si>
+    <t>Степень</t>
+  </si>
+  <si>
+    <t>Урок</t>
+  </si>
+  <si>
+    <t>Италия</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Журналист</t>
+  </si>
+  <si>
+    <t>Машина</t>
+  </si>
+  <si>
+    <t>Красота</t>
+  </si>
+  <si>
+    <t>Четверг</t>
+  </si>
+  <si>
+    <t>Автобус</t>
+  </si>
+  <si>
+    <t>Запись</t>
+  </si>
+  <si>
+    <t>Партнёр</t>
+  </si>
+  <si>
+    <t>Волос</t>
+  </si>
+  <si>
+    <t>Создатель</t>
+  </si>
+  <si>
+    <t>Белый</t>
+  </si>
+  <si>
+    <t>Округ</t>
+  </si>
+  <si>
+    <t>Термин</t>
+  </si>
+  <si>
+    <t>Кредит</t>
+  </si>
+  <si>
+    <t>Направление</t>
+  </si>
+  <si>
+    <t>Эстония</t>
+  </si>
+  <si>
+    <t>Штраф</t>
+  </si>
+  <si>
+    <t>Ежедневно</t>
+  </si>
+  <si>
+    <t>Сад</t>
+  </si>
+  <si>
+    <t>Скорость</t>
+  </si>
+  <si>
+    <t>Настроение</t>
+  </si>
+  <si>
+    <t>Область, зона</t>
+  </si>
+  <si>
+    <t>Посетитель</t>
+  </si>
+  <si>
+    <t>Усадьба</t>
+  </si>
+  <si>
+    <t>Алитус</t>
+  </si>
+  <si>
+    <t>Поведение</t>
+  </si>
+  <si>
+    <t>Гора</t>
+  </si>
+  <si>
+    <t>Площадь</t>
+  </si>
+  <si>
+    <t>Пробовать, пытаться</t>
+  </si>
+  <si>
+    <t>Пятница</t>
+  </si>
+  <si>
+    <t>Выходной</t>
+  </si>
+  <si>
+    <t>Стоить</t>
+  </si>
+  <si>
+    <t>Политик</t>
+  </si>
+  <si>
+    <t>Солнце</t>
+  </si>
+  <si>
+    <t>Сектор</t>
+  </si>
+  <si>
+    <t>Метод</t>
+  </si>
+  <si>
+    <t>Преступление</t>
+  </si>
+  <si>
+    <t>Стоять</t>
+  </si>
+  <si>
+    <t>Мышь</t>
+  </si>
+  <si>
+    <t>Применение</t>
+  </si>
+  <si>
+    <t>Надеяться</t>
+  </si>
+  <si>
+    <t>Жертва</t>
+  </si>
+  <si>
+    <t>Пиво</t>
+  </si>
+  <si>
+    <t>Продавать</t>
+  </si>
+  <si>
+    <t>Разница</t>
+  </si>
+  <si>
+    <t>Общаться</t>
+  </si>
+  <si>
+    <t>Восток</t>
+  </si>
+  <si>
+    <t>Радость</t>
+  </si>
+  <si>
+    <t>Радио</t>
+  </si>
+  <si>
+    <t>Объяснять</t>
+  </si>
+  <si>
+    <t>Шаг</t>
+  </si>
+  <si>
+    <t>Серьезный</t>
+  </si>
+  <si>
+    <t>Пенсия</t>
+  </si>
+  <si>
+    <t>Управлять</t>
+  </si>
+  <si>
+    <t>To manage</t>
+  </si>
+  <si>
+    <t>Парень</t>
+  </si>
+  <si>
+    <t>Открыть</t>
+  </si>
+  <si>
+    <t>Давно</t>
+  </si>
+  <si>
+    <t>Чувствовать</t>
+  </si>
+  <si>
+    <t>К</t>
+  </si>
+  <si>
+    <t>Верить</t>
+  </si>
+  <si>
+    <t>Умереть</t>
+  </si>
+  <si>
+    <t>Победа</t>
+  </si>
+  <si>
+    <t>Категория</t>
+  </si>
+  <si>
+    <t>Играть</t>
+  </si>
+  <si>
+    <t>Брат</t>
+  </si>
+  <si>
+    <t>Быстрый</t>
+  </si>
+  <si>
+    <t>Деталь</t>
+  </si>
+  <si>
+    <t>Путешествовать</t>
+  </si>
+  <si>
+    <t>Алкоголь</t>
+  </si>
+  <si>
+    <t>Свободный</t>
+  </si>
+  <si>
+    <t>Разговор</t>
+  </si>
+  <si>
+    <t>Писатель</t>
+  </si>
+  <si>
+    <t>Гость</t>
+  </si>
+  <si>
+    <t>Самолет</t>
+  </si>
+  <si>
+    <t>Премьер</t>
+  </si>
+  <si>
+    <t>Короткий</t>
+  </si>
+  <si>
+    <t>Вести себя</t>
+  </si>
+  <si>
+    <t>Польский</t>
+  </si>
+  <si>
+    <t>Polish</t>
+  </si>
+  <si>
+    <t>Недавно</t>
+  </si>
+  <si>
+    <t>Ветер</t>
+  </si>
+  <si>
+    <t>Успех, удача</t>
+  </si>
+  <si>
+    <t>Значение</t>
+  </si>
+  <si>
+    <t>Беларусь</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Оружие</t>
+  </si>
+  <si>
+    <t>Стоянка</t>
+  </si>
+  <si>
+    <t>Страница</t>
+  </si>
+  <si>
+    <t>Собственный</t>
+  </si>
+  <si>
+    <t>Оба</t>
+  </si>
+  <si>
+    <t>Девушка</t>
+  </si>
+  <si>
+    <t>Советовать</t>
+  </si>
+  <si>
+    <t>Нефть</t>
+  </si>
+  <si>
+    <t>Слышать</t>
+  </si>
+  <si>
+    <t>Разум</t>
+  </si>
+  <si>
+    <t>Площадка</t>
+  </si>
+  <si>
+    <t>Еврей</t>
+  </si>
+  <si>
+    <t>Мясо</t>
+  </si>
+  <si>
+    <t>Опасность</t>
+  </si>
+  <si>
+    <t>Сто, Сотня</t>
+  </si>
+  <si>
+    <t>Адрес</t>
+  </si>
+  <si>
+    <t>Молящийся</t>
+  </si>
+  <si>
+    <t>Актёр</t>
+  </si>
+  <si>
+    <t>Танец</t>
+  </si>
+  <si>
+    <t>Блюдо</t>
+  </si>
+  <si>
+    <t>Жалоба</t>
+  </si>
+  <si>
+    <t>Душа</t>
+  </si>
+  <si>
+    <t>Фрукт</t>
+  </si>
+  <si>
+    <t>Китай</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Остров</t>
+  </si>
+  <si>
+    <t>Кухня</t>
+  </si>
+  <si>
+    <t>Безопасный</t>
+  </si>
+  <si>
+    <t>Овощь</t>
+  </si>
+  <si>
+    <t>Любить</t>
+  </si>
+  <si>
+    <t>Спортсмен</t>
+  </si>
+  <si>
+    <t>Фотография</t>
+  </si>
+  <si>
+    <t>Молодой человек</t>
+  </si>
+  <si>
+    <t>Покупатель</t>
+  </si>
+  <si>
+    <t>Мебель</t>
+  </si>
+  <si>
+    <t>Испания</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Терять</t>
+  </si>
+  <si>
+    <t>Офис</t>
+  </si>
+  <si>
+    <t>Духовный</t>
+  </si>
+  <si>
+    <t>Двор</t>
+  </si>
+  <si>
+    <t>Напиток</t>
+  </si>
+  <si>
+    <t>Небо</t>
+  </si>
+  <si>
+    <t>Золото</t>
+  </si>
+  <si>
+    <t>Авария</t>
+  </si>
+  <si>
+    <t>Обсуждать</t>
+  </si>
+  <si>
+    <t>Гражданин</t>
+  </si>
+  <si>
+    <t>Культурный</t>
+  </si>
+  <si>
+    <t>Увеличивать</t>
+  </si>
+  <si>
+    <t>To increase</t>
+  </si>
+  <si>
+    <t>Запах</t>
+  </si>
+  <si>
+    <t>Вести (за собой)</t>
+  </si>
+  <si>
+    <t>Академия</t>
+  </si>
+  <si>
+    <t>Календарь</t>
+  </si>
+  <si>
+    <t>Сказка</t>
+  </si>
+  <si>
+    <t>Англичанин</t>
+  </si>
+  <si>
+    <t>Огромный</t>
+  </si>
+  <si>
+    <t>Озеро</t>
+  </si>
+  <si>
+    <t>Вес</t>
+  </si>
+  <si>
+    <t>Доллар</t>
+  </si>
+  <si>
+    <t>Кого? Что?</t>
+  </si>
+  <si>
+    <t>Полный</t>
+  </si>
+  <si>
+    <t>Бывший</t>
+  </si>
+  <si>
+    <t>Ex-</t>
+  </si>
+  <si>
+    <t>Миссия</t>
+  </si>
+  <si>
+    <t>Хлеб</t>
+  </si>
+  <si>
+    <t>Теплый</t>
+  </si>
+  <si>
+    <t>Лист</t>
+  </si>
+  <si>
+    <t>Утвердить</t>
+  </si>
+  <si>
+    <t>Личность</t>
+  </si>
+  <si>
+    <t>Рыба</t>
+  </si>
+  <si>
+    <t>Элестричество</t>
+  </si>
+  <si>
+    <t>Странный</t>
+  </si>
+  <si>
+    <t>Швеция</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Состав</t>
+  </si>
+  <si>
+    <t>Турция</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Открывать</t>
+  </si>
+  <si>
+    <t>Тропа</t>
+  </si>
+  <si>
+    <t>Подготовить</t>
+  </si>
+  <si>
+    <t>Оплатить</t>
+  </si>
+  <si>
+    <t>Счастливый</t>
+  </si>
+  <si>
+    <t>Кофе</t>
+  </si>
+  <si>
+    <t>Дочь</t>
+  </si>
+  <si>
+    <t>Актуальный</t>
+  </si>
+  <si>
+    <t>Епископ</t>
+  </si>
+  <si>
+    <t>Утена</t>
+  </si>
+  <si>
+    <t>Информационный</t>
+  </si>
+  <si>
+    <t>Альбом</t>
+  </si>
+  <si>
+    <t>Прямой</t>
+  </si>
+  <si>
+    <t>Удобный</t>
+  </si>
+  <si>
+    <t>Учить</t>
+  </si>
+  <si>
+    <t>Защищать</t>
+  </si>
+  <si>
+    <t>Памятник</t>
+  </si>
+  <si>
+    <t>Лента</t>
+  </si>
+  <si>
+    <t>Мечта</t>
+  </si>
+  <si>
+    <t>Немец</t>
+  </si>
+  <si>
+    <t>В большей степени</t>
+  </si>
+  <si>
+    <t>Mostly</t>
+  </si>
+  <si>
+    <t>Комната</t>
+  </si>
+  <si>
+    <t>Есть</t>
+  </si>
+  <si>
+    <t>Are</t>
+  </si>
+  <si>
+    <t>Турист</t>
+  </si>
+  <si>
+    <t>Рождетсво</t>
+  </si>
+  <si>
+    <t>Река</t>
+  </si>
+  <si>
+    <t>Найти</t>
+  </si>
+  <si>
+    <t>Выйти</t>
+  </si>
+  <si>
+    <t>Эмоция</t>
+  </si>
+  <si>
+    <t>Масло</t>
+  </si>
+  <si>
+    <t>Бумага</t>
+  </si>
+  <si>
+    <t>Звезда</t>
+  </si>
+  <si>
+    <t>Пять</t>
+  </si>
+  <si>
+    <t>Мост</t>
+  </si>
+  <si>
+    <t>Выгода</t>
+  </si>
+  <si>
+    <t>Хотите</t>
+  </si>
+  <si>
+    <t>Километр</t>
+  </si>
+  <si>
+    <t>Англия</t>
+  </si>
+  <si>
+    <t>Малыш</t>
+  </si>
+  <si>
+    <t>Счастье</t>
+  </si>
+  <si>
+    <t>Трасса</t>
+  </si>
+  <si>
+    <t>Плохо</t>
+  </si>
+  <si>
+    <t>Народ</t>
+  </si>
+  <si>
+    <t>Поэт</t>
+  </si>
+  <si>
+    <t>Цветок</t>
+  </si>
+  <si>
+    <t>Приятный</t>
+  </si>
+  <si>
+    <t>Центральный</t>
+  </si>
+  <si>
+    <t>Голосовать</t>
+  </si>
+  <si>
+    <t>Честь</t>
+  </si>
+  <si>
+    <t>Свадьба</t>
+  </si>
+  <si>
+    <t>Фермер</t>
+  </si>
+  <si>
+    <t>Стекло</t>
+  </si>
+  <si>
+    <t>Уникальный</t>
+  </si>
+  <si>
+    <t>Горячий</t>
+  </si>
+  <si>
+    <t>Какой-то</t>
+  </si>
+  <si>
+    <t>Страх</t>
+  </si>
+  <si>
+    <t>Some kind</t>
+  </si>
+  <si>
+    <t>Бутон цветка</t>
+  </si>
+  <si>
+    <t>Учительница</t>
+  </si>
+  <si>
+    <t>Сидеть</t>
+  </si>
+  <si>
+    <t>Отель</t>
+  </si>
+  <si>
+    <t>Назад</t>
+  </si>
+  <si>
+    <t>Ресторан</t>
+  </si>
+  <si>
+    <t>Впечатляющий</t>
+  </si>
+  <si>
+    <t>Стратегия</t>
+  </si>
+  <si>
+    <t>Вино</t>
+  </si>
+  <si>
+    <t>Металл</t>
+  </si>
+  <si>
+    <t>Профессия</t>
+  </si>
+  <si>
+    <t>Мотор</t>
+  </si>
+  <si>
+    <t>Япония</t>
+  </si>
+  <si>
+    <t>Иисус</t>
+  </si>
+  <si>
+    <t>Характеристика</t>
+  </si>
+  <si>
+    <t>Профессор</t>
+  </si>
+  <si>
+    <t>Поток</t>
+  </si>
+  <si>
+    <t>Волна</t>
+  </si>
+  <si>
+    <t>День рождения</t>
+  </si>
+  <si>
+    <t>Воскресенье</t>
+  </si>
+  <si>
+    <t>Детство</t>
+  </si>
+  <si>
+    <t>Дорогой</t>
+  </si>
+  <si>
+    <t>dear, expencive</t>
+  </si>
+  <si>
+    <t>Чай</t>
+  </si>
+  <si>
+    <t>Пить</t>
+  </si>
+  <si>
+    <t>Советский</t>
+  </si>
+  <si>
+    <t>Пассажир</t>
+  </si>
+  <si>
+    <t>Приватный</t>
+  </si>
+  <si>
+    <t>Красный</t>
+  </si>
+  <si>
+    <t>Номер</t>
+  </si>
+  <si>
+    <t>Канал</t>
+  </si>
+  <si>
+    <t>Снег</t>
+  </si>
+  <si>
+    <t>Кодекс</t>
+  </si>
+  <si>
+    <t>Немного, чуть-чуть</t>
+  </si>
+  <si>
+    <t>Поэзия</t>
+  </si>
+  <si>
+    <t>Банкрот</t>
+  </si>
+  <si>
+    <t>Древесина</t>
+  </si>
+  <si>
+    <t>Ветвь</t>
+  </si>
+  <si>
+    <t>Анализ</t>
+  </si>
+  <si>
+    <t>Газета</t>
+  </si>
+  <si>
+    <t>Конституция</t>
+  </si>
+  <si>
+    <t>Вызов, челендж</t>
+  </si>
+  <si>
+    <t>Витамин</t>
+  </si>
+  <si>
+    <t>Повсюду</t>
+  </si>
+  <si>
+    <t>Устройство</t>
+  </si>
+  <si>
+    <t>Рецепт</t>
+  </si>
+  <si>
+    <t>Израиль</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Птица</t>
+  </si>
+  <si>
+    <t>Черный</t>
+  </si>
+  <si>
+    <t>Родиться</t>
+  </si>
+  <si>
+    <t>Сотрудничать</t>
+  </si>
+  <si>
+    <t>Цикл</t>
+  </si>
+  <si>
+    <t>Религия</t>
+  </si>
+  <si>
+    <t>Камера</t>
+  </si>
+  <si>
+    <t>Сирия</t>
+  </si>
+  <si>
+    <t>Кафедраль</t>
+  </si>
+  <si>
+    <t>В любом случае</t>
+  </si>
+  <si>
+    <t>Кровать</t>
+  </si>
+  <si>
+    <t>Объём</t>
+  </si>
+  <si>
+    <t>Норвегия</t>
+  </si>
+  <si>
+    <t>Болельщик</t>
+  </si>
+  <si>
+    <t>Уважение</t>
+  </si>
+  <si>
+    <t>Обнаруживать</t>
+  </si>
+  <si>
+    <t>Холодный</t>
+  </si>
+  <si>
+    <t>Бежать</t>
+  </si>
+  <si>
+    <t>Память</t>
+  </si>
+  <si>
+    <t>Чрезмерно</t>
+  </si>
+  <si>
+    <t>Десять</t>
+  </si>
+  <si>
+    <t>Записать</t>
+  </si>
+  <si>
+    <t>Успешный</t>
+  </si>
+  <si>
+    <t>Шина</t>
+  </si>
+  <si>
+    <t>Пригласить</t>
+  </si>
+  <si>
+    <t>Закрыть</t>
+  </si>
+  <si>
+    <t>Артист</t>
+  </si>
+  <si>
+    <t>Парламент</t>
+  </si>
+  <si>
+    <t>Архив</t>
+  </si>
+  <si>
+    <t>Спокойствие</t>
+  </si>
+  <si>
+    <t>Греция</t>
+  </si>
+  <si>
+    <t>Разрешение</t>
+  </si>
+  <si>
+    <t>Вчера</t>
+  </si>
+  <si>
+    <t>Считать</t>
+  </si>
+  <si>
+    <t>Католик</t>
+  </si>
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Спросить</t>
+  </si>
+  <si>
+    <t>Касса</t>
+  </si>
+  <si>
+    <t>Узнать</t>
+  </si>
+  <si>
+    <t>Федерация</t>
+  </si>
+  <si>
+    <t>Аппарат</t>
+  </si>
+  <si>
+    <t>Колега</t>
   </si>
 </sst>
 </file>
@@ -8856,10 +10455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF727A7-F0F4-4E4E-8865-5EE44A086726}">
-  <dimension ref="A1:C907"/>
+  <dimension ref="A1:C897"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
-      <selection activeCell="C347" sqref="C347"/>
+    <sheetView tabSelected="1" topLeftCell="A880" workbookViewId="0">
+      <selection activeCell="C898" sqref="C898"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12594,7 +14193,9 @@
       <c r="B347" s="2" t="s">
         <v>2011</v>
       </c>
-      <c r="C347" s="2"/>
+      <c r="C347" s="2" t="s">
+        <v>2549</v>
+      </c>
     </row>
     <row r="348" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A348" s="1" t="s">
@@ -12603,7 +14204,9 @@
       <c r="B348" s="2" t="s">
         <v>2010</v>
       </c>
-      <c r="C348" s="2"/>
+      <c r="C348" s="2" t="s">
+        <v>2550</v>
+      </c>
     </row>
     <row r="349" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A349" s="1" t="s">
@@ -12612,7 +14215,9 @@
       <c r="B349" s="2" t="s">
         <v>2009</v>
       </c>
-      <c r="C349" s="2"/>
+      <c r="C349" s="2" t="s">
+        <v>2551</v>
+      </c>
     </row>
     <row r="350" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A350" s="1" t="s">
@@ -12621,7 +14226,9 @@
       <c r="B350" s="2" t="s">
         <v>2008</v>
       </c>
-      <c r="C350" s="2"/>
+      <c r="C350" s="2" t="s">
+        <v>2552</v>
+      </c>
     </row>
     <row r="351" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A351" s="1" t="s">
@@ -12630,7 +14237,9 @@
       <c r="B351" s="2" t="s">
         <v>2007</v>
       </c>
-      <c r="C351" s="2"/>
+      <c r="C351" s="2" t="s">
+        <v>2553</v>
+      </c>
     </row>
     <row r="352" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A352" s="1" t="s">
@@ -12639,7 +14248,9 @@
       <c r="B352" s="2" t="s">
         <v>1933</v>
       </c>
-      <c r="C352" s="2"/>
+      <c r="C352" s="2" t="s">
+        <v>2554</v>
+      </c>
     </row>
     <row r="353" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A353" s="1" t="s">
@@ -12648,14 +14259,20 @@
       <c r="B353" s="2" t="s">
         <v>2006</v>
       </c>
-      <c r="C353" s="2"/>
+      <c r="C353" s="2" t="s">
+        <v>2555</v>
+      </c>
     </row>
     <row r="354" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A354" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="B354" s="2"/>
-      <c r="C354" s="2"/>
+      <c r="B354" s="2" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>2557</v>
+      </c>
     </row>
     <row r="355" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A355" s="1" t="s">
@@ -12664,7 +14281,9 @@
       <c r="B355" s="2" t="s">
         <v>2005</v>
       </c>
-      <c r="C355" s="2"/>
+      <c r="C355" s="2" t="s">
+        <v>2558</v>
+      </c>
     </row>
     <row r="356" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
@@ -12673,7 +14292,9 @@
       <c r="B356" s="2" t="s">
         <v>2004</v>
       </c>
-      <c r="C356" s="2"/>
+      <c r="C356" s="2" t="s">
+        <v>2559</v>
+      </c>
     </row>
     <row r="357" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A357" s="1" t="s">
@@ -12682,7 +14303,9 @@
       <c r="B357" s="2" t="s">
         <v>2003</v>
       </c>
-      <c r="C357" s="2"/>
+      <c r="C357" s="2" t="s">
+        <v>2560</v>
+      </c>
     </row>
     <row r="358" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A358" s="1" t="s">
@@ -12691,7 +14314,9 @@
       <c r="B358" s="2" t="s">
         <v>2002</v>
       </c>
-      <c r="C358" s="2"/>
+      <c r="C358" s="2" t="s">
+        <v>2561</v>
+      </c>
     </row>
     <row r="359" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A359" s="1" t="s">
@@ -12700,7 +14325,9 @@
       <c r="B359" s="2" t="s">
         <v>2001</v>
       </c>
-      <c r="C359" s="2"/>
+      <c r="C359" s="2" t="s">
+        <v>2562</v>
+      </c>
     </row>
     <row r="360" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A360" s="1" t="s">
@@ -12709,14 +14336,18 @@
       <c r="B360" s="2" t="s">
         <v>2000</v>
       </c>
-      <c r="C360" s="2"/>
+      <c r="C360" s="2" t="s">
+        <v>2563</v>
+      </c>
     </row>
     <row r="361" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A361" s="1" t="s">
         <v>820</v>
       </c>
       <c r="B361" s="2"/>
-      <c r="C361" s="2"/>
+      <c r="C361" s="2" t="s">
+        <v>2564</v>
+      </c>
     </row>
     <row r="362" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A362" s="1" t="s">
@@ -12725,7 +14356,9 @@
       <c r="B362" s="2" t="s">
         <v>1999</v>
       </c>
-      <c r="C362" s="2"/>
+      <c r="C362" s="2" t="s">
+        <v>2565</v>
+      </c>
     </row>
     <row r="363" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A363" s="1" t="s">
@@ -12734,7 +14367,9 @@
       <c r="B363" s="2" t="s">
         <v>1998</v>
       </c>
-      <c r="C363" s="2"/>
+      <c r="C363" s="2" t="s">
+        <v>2473</v>
+      </c>
     </row>
     <row r="364" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A364" s="1" t="s">
@@ -12743,7 +14378,9 @@
       <c r="B364" s="2" t="s">
         <v>1997</v>
       </c>
-      <c r="C364" s="2"/>
+      <c r="C364" s="2" t="s">
+        <v>2566</v>
+      </c>
     </row>
     <row r="365" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A365" s="1" t="s">
@@ -12752,7 +14389,9 @@
       <c r="B365" s="2" t="s">
         <v>1996</v>
       </c>
-      <c r="C365" s="2"/>
+      <c r="C365" s="2" t="s">
+        <v>2567</v>
+      </c>
     </row>
     <row r="366" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A366" s="1" t="s">
@@ -12761,7 +14400,9 @@
       <c r="B366" s="2" t="s">
         <v>1995</v>
       </c>
-      <c r="C366" s="2"/>
+      <c r="C366" s="2" t="s">
+        <v>2568</v>
+      </c>
     </row>
     <row r="367" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A367" s="1" t="s">
@@ -12770,7 +14411,9 @@
       <c r="B367" s="2" t="s">
         <v>1994</v>
       </c>
-      <c r="C367" s="2"/>
+      <c r="C367" s="2" t="s">
+        <v>2569</v>
+      </c>
     </row>
     <row r="368" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A368" s="1" t="s">
@@ -12779,7 +14422,9 @@
       <c r="B368" s="2" t="s">
         <v>1993</v>
       </c>
-      <c r="C368" s="2"/>
+      <c r="C368" s="2" t="s">
+        <v>2570</v>
+      </c>
     </row>
     <row r="369" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A369" s="1" t="s">
@@ -12788,7 +14433,9 @@
       <c r="B369" s="2" t="s">
         <v>1992</v>
       </c>
-      <c r="C369" s="2"/>
+      <c r="C369" s="2" t="s">
+        <v>2571</v>
+      </c>
     </row>
     <row r="370" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A370" s="1" t="s">
@@ -12797,7 +14444,9 @@
       <c r="B370" s="2" t="s">
         <v>1991</v>
       </c>
-      <c r="C370" s="2"/>
+      <c r="C370" s="2" t="s">
+        <v>2572</v>
+      </c>
     </row>
     <row r="371" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A371" s="1" t="s">
@@ -12806,7 +14455,9 @@
       <c r="B371" s="2" t="s">
         <v>1990</v>
       </c>
-      <c r="C371" s="2"/>
+      <c r="C371" s="2" t="s">
+        <v>2573</v>
+      </c>
     </row>
     <row r="372" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A372" s="1" t="s">
@@ -12815,7 +14466,9 @@
       <c r="B372" s="2" t="s">
         <v>1989</v>
       </c>
-      <c r="C372" s="2"/>
+      <c r="C372" s="2" t="s">
+        <v>2574</v>
+      </c>
     </row>
     <row r="373" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A373" s="1" t="s">
@@ -12824,7 +14477,9 @@
       <c r="B373" s="2" t="s">
         <v>1988</v>
       </c>
-      <c r="C373" s="2"/>
+      <c r="C373" s="2" t="s">
+        <v>2575</v>
+      </c>
     </row>
     <row r="374" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A374" s="1" t="s">
@@ -12833,7 +14488,9 @@
       <c r="B374" s="2" t="s">
         <v>1987</v>
       </c>
-      <c r="C374" s="2"/>
+      <c r="C374" s="2" t="s">
+        <v>2576</v>
+      </c>
     </row>
     <row r="375" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A375" s="1" t="s">
@@ -12842,7 +14499,9 @@
       <c r="B375" s="2" t="s">
         <v>1839</v>
       </c>
-      <c r="C375" s="2"/>
+      <c r="C375" s="2" t="s">
+        <v>2577</v>
+      </c>
     </row>
     <row r="376" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A376" s="1" t="s">
@@ -12860,7 +14519,9 @@
       <c r="B377" s="2" t="s">
         <v>1985</v>
       </c>
-      <c r="C377" s="2"/>
+      <c r="C377" s="2" t="s">
+        <v>2578</v>
+      </c>
     </row>
     <row r="378" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A378" s="1" t="s">
@@ -12869,7 +14530,9 @@
       <c r="B378" s="2" t="s">
         <v>1984</v>
       </c>
-      <c r="C378" s="2"/>
+      <c r="C378" s="2" t="s">
+        <v>2579</v>
+      </c>
     </row>
     <row r="379" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A379" s="1" t="s">
@@ -12878,7 +14541,9 @@
       <c r="B379" s="2" t="s">
         <v>1983</v>
       </c>
-      <c r="C379" s="2"/>
+      <c r="C379" s="2" t="s">
+        <v>2580</v>
+      </c>
     </row>
     <row r="380" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A380" s="1" t="s">
@@ -12887,7 +14552,9 @@
       <c r="B380" s="2" t="s">
         <v>1982</v>
       </c>
-      <c r="C380" s="2"/>
+      <c r="C380" s="2" t="s">
+        <v>2581</v>
+      </c>
     </row>
     <row r="381" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A381" s="1" t="s">
@@ -12896,7 +14563,9 @@
       <c r="B381" s="2" t="s">
         <v>1853</v>
       </c>
-      <c r="C381" s="2"/>
+      <c r="C381" s="2" t="s">
+        <v>2582</v>
+      </c>
     </row>
     <row r="382" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A382" s="1" t="s">
@@ -12905,7 +14574,9 @@
       <c r="B382" s="2" t="s">
         <v>1981</v>
       </c>
-      <c r="C382" s="2"/>
+      <c r="C382" s="2" t="s">
+        <v>2583</v>
+      </c>
     </row>
     <row r="383" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A383" s="1" t="s">
@@ -12914,7 +14585,9 @@
       <c r="B383" s="2" t="s">
         <v>1876</v>
       </c>
-      <c r="C383" s="2"/>
+      <c r="C383" s="2" t="s">
+        <v>2584</v>
+      </c>
     </row>
     <row r="384" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A384" s="1" t="s">
@@ -12923,7 +14596,9 @@
       <c r="B384" s="2" t="s">
         <v>1980</v>
       </c>
-      <c r="C384" s="2"/>
+      <c r="C384" s="2" t="s">
+        <v>2585</v>
+      </c>
     </row>
     <row r="385" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A385" s="1" t="s">
@@ -12932,7 +14607,9 @@
       <c r="B385" s="2" t="s">
         <v>1979</v>
       </c>
-      <c r="C385" s="2"/>
+      <c r="C385" s="2" t="s">
+        <v>2586</v>
+      </c>
     </row>
     <row r="386" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A386" s="1" t="s">
@@ -12941,7 +14618,9 @@
       <c r="B386" s="2" t="s">
         <v>1978</v>
       </c>
-      <c r="C386" s="2"/>
+      <c r="C386" s="2" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="387" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A387" s="1" t="s">
@@ -12950,14 +14629,20 @@
       <c r="B387" s="2" t="s">
         <v>1977</v>
       </c>
-      <c r="C387" s="2"/>
+      <c r="C387" s="2" t="s">
+        <v>2588</v>
+      </c>
     </row>
     <row r="388" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A388" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="B388" s="2"/>
-      <c r="C388" s="2"/>
+      <c r="B388" s="2" t="s">
+        <v>2590</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>2589</v>
+      </c>
     </row>
     <row r="389" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A389" s="1" t="s">
@@ -12966,7 +14651,9 @@
       <c r="B389" s="2" t="s">
         <v>1976</v>
       </c>
-      <c r="C389" s="2"/>
+      <c r="C389" s="2" t="s">
+        <v>2591</v>
+      </c>
     </row>
     <row r="390" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A390" s="1" t="s">
@@ -12975,21 +14662,31 @@
       <c r="B390" s="2" t="s">
         <v>1975</v>
       </c>
-      <c r="C390" s="2"/>
+      <c r="C390" s="2" t="s">
+        <v>2592</v>
+      </c>
     </row>
     <row r="391" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A391" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="B391" s="2"/>
-      <c r="C391" s="2"/>
+      <c r="B391" s="2" t="s">
+        <v>2594</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>2593</v>
+      </c>
     </row>
     <row r="392" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A392" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="B392" s="2"/>
-      <c r="C392" s="2"/>
+      <c r="B392" s="2" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>2595</v>
+      </c>
     </row>
     <row r="393" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A393" s="1" t="s">
@@ -12998,14 +14695,20 @@
       <c r="B393" s="2" t="s">
         <v>1974</v>
       </c>
-      <c r="C393" s="2"/>
+      <c r="C393" s="2" t="s">
+        <v>2597</v>
+      </c>
     </row>
     <row r="394" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A394" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="B394" s="2"/>
-      <c r="C394" s="2"/>
+      <c r="B394" s="2" t="s">
+        <v>2599</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>2598</v>
+      </c>
     </row>
     <row r="395" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A395" s="1" t="s">
@@ -13014,7 +14717,9 @@
       <c r="B395" s="2" t="s">
         <v>1973</v>
       </c>
-      <c r="C395" s="2"/>
+      <c r="C395" s="2" t="s">
+        <v>2600</v>
+      </c>
     </row>
     <row r="396" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A396" s="1" t="s">
@@ -13023,4472 +14728,5406 @@
       <c r="B396" s="2" t="s">
         <v>1972</v>
       </c>
-      <c r="C396" s="2"/>
+      <c r="C396" s="2" t="s">
+        <v>2333</v>
+      </c>
     </row>
     <row r="397" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A397" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="B397" s="2"/>
-      <c r="C397" s="2"/>
+        <v>857</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>2496</v>
+      </c>
     </row>
     <row r="398" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A398" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="B398" s="2"/>
-      <c r="C398" s="2"/>
+        <v>858</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>2602</v>
+      </c>
     </row>
     <row r="399" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A399" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>1575</v>
-      </c>
-      <c r="C399" s="2"/>
+        <v>2604</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>2603</v>
+      </c>
     </row>
     <row r="400" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A400" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="B400" s="2"/>
-      <c r="C400" s="2"/>
+        <v>860</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>2605</v>
+      </c>
     </row>
     <row r="401" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A401" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>1971</v>
-      </c>
-      <c r="C401" s="2"/>
+        <v>1970</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>2606</v>
+      </c>
     </row>
     <row r="402" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A402" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C402" s="2"/>
+        <v>1969</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>2607</v>
+      </c>
     </row>
     <row r="403" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A403" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>1969</v>
-      </c>
-      <c r="C403" s="2"/>
+        <v>1968</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>2608</v>
+      </c>
     </row>
     <row r="404" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A404" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="C404" s="2"/>
     </row>
     <row r="405" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A405" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>1967</v>
-      </c>
-      <c r="C405" s="2"/>
+        <v>1966</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>2609</v>
+      </c>
     </row>
     <row r="406" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A406" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>1966</v>
-      </c>
-      <c r="C406" s="2"/>
+        <v>1965</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>2610</v>
+      </c>
     </row>
     <row r="407" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A407" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>1965</v>
-      </c>
-      <c r="C407" s="2"/>
+        <v>2612</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>2611</v>
+      </c>
     </row>
     <row r="408" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A408" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="B408" s="2"/>
-      <c r="C408" s="2"/>
+        <v>868</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>2613</v>
+      </c>
     </row>
     <row r="409" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A409" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>1964</v>
-      </c>
-      <c r="C409" s="2"/>
+        <v>1963</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>2614</v>
+      </c>
     </row>
     <row r="410" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A410" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>1963</v>
-      </c>
-      <c r="C410" s="2"/>
+        <v>1962</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>2615</v>
+      </c>
     </row>
     <row r="411" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A411" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>1962</v>
-      </c>
-      <c r="C411" s="2"/>
+        <v>1961</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>2448</v>
+      </c>
     </row>
     <row r="412" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A412" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>1961</v>
-      </c>
-      <c r="C412" s="2"/>
+        <v>1960</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>2616</v>
+      </c>
     </row>
     <row r="413" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A413" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>1960</v>
-      </c>
-      <c r="C413" s="2"/>
+        <v>1959</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>2617</v>
+      </c>
     </row>
     <row r="414" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A414" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>1959</v>
-      </c>
-      <c r="C414" s="2"/>
+        <v>1958</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>2430</v>
+      </c>
     </row>
     <row r="415" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A415" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>1958</v>
-      </c>
-      <c r="C415" s="2"/>
+        <v>1957</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>2618</v>
+      </c>
     </row>
     <row r="416" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A416" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>1957</v>
-      </c>
-      <c r="C416" s="2"/>
+        <v>1956</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>2619</v>
+      </c>
     </row>
     <row r="417" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A417" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>1956</v>
-      </c>
-      <c r="C417" s="2"/>
+        <v>1955</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>2620</v>
+      </c>
     </row>
     <row r="418" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A418" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>1955</v>
-      </c>
-      <c r="C418" s="2"/>
+        <v>1954</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>2621</v>
+      </c>
     </row>
     <row r="419" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A419" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>1954</v>
-      </c>
-      <c r="C419" s="2"/>
+        <v>1953</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>2622</v>
+      </c>
     </row>
     <row r="420" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A420" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>1953</v>
-      </c>
-      <c r="C420" s="2"/>
+        <v>2623</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>2279</v>
+      </c>
     </row>
     <row r="421" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A421" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="B421" s="2"/>
-      <c r="C421" s="2"/>
+        <v>881</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>2624</v>
+      </c>
     </row>
     <row r="422" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A422" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>1952</v>
-      </c>
-      <c r="C422" s="2"/>
+        <v>1951</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>2625</v>
+      </c>
     </row>
     <row r="423" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A423" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>1951</v>
-      </c>
-      <c r="C423" s="2"/>
+        <v>1950</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>2626</v>
+      </c>
     </row>
     <row r="424" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A424" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>1950</v>
-      </c>
-      <c r="C424" s="2"/>
+        <v>1949</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>2627</v>
+      </c>
     </row>
     <row r="425" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A425" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>1949</v>
-      </c>
-      <c r="C425" s="2"/>
+        <v>1736</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>2628</v>
+      </c>
     </row>
     <row r="426" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A426" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="C426" s="2"/>
+        <v>1948</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>2629</v>
+      </c>
     </row>
     <row r="427" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A427" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>1948</v>
-      </c>
-      <c r="C427" s="2"/>
+        <v>1504</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>2222</v>
+      </c>
     </row>
     <row r="428" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A428" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C428" s="2"/>
+        <v>1947</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>2630</v>
+      </c>
     </row>
     <row r="429" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A429" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>1947</v>
-      </c>
-      <c r="C429" s="2"/>
+        <v>1946</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>2631</v>
+      </c>
     </row>
     <row r="430" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A430" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>1946</v>
-      </c>
-      <c r="C430" s="2"/>
+        <v>1945</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>2632</v>
+      </c>
     </row>
     <row r="431" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A431" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>1945</v>
-      </c>
-      <c r="C431" s="2"/>
+        <v>1669</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>2633</v>
+      </c>
     </row>
     <row r="432" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A432" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>1669</v>
-      </c>
-      <c r="C432" s="2"/>
+        <v>1944</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>2634</v>
+      </c>
     </row>
     <row r="433" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A433" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>1944</v>
-      </c>
-      <c r="C433" s="2"/>
+        <v>1943</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>2635</v>
+      </c>
     </row>
     <row r="434" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A434" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>1943</v>
-      </c>
-      <c r="C434" s="2"/>
+        <v>1942</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>2636</v>
+      </c>
     </row>
     <row r="435" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A435" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>1942</v>
-      </c>
-      <c r="C435" s="2"/>
+        <v>1941</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>2637</v>
+      </c>
     </row>
     <row r="436" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A436" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>1941</v>
-      </c>
-      <c r="C436" s="2"/>
+        <v>1940</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>2638</v>
+      </c>
     </row>
     <row r="437" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A437" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>1940</v>
-      </c>
-      <c r="C437" s="2"/>
+        <v>1939</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>2639</v>
+      </c>
     </row>
     <row r="438" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A438" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>1939</v>
-      </c>
-      <c r="C438" s="2"/>
+        <v>2641</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>2640</v>
+      </c>
     </row>
     <row r="439" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A439" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="B439" s="2"/>
-      <c r="C439" s="2"/>
+        <v>899</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>2642</v>
+      </c>
     </row>
     <row r="440" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A440" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>1938</v>
-      </c>
-      <c r="C440" s="2"/>
+        <v>1937</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>2643</v>
+      </c>
     </row>
     <row r="441" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A441" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>1937</v>
-      </c>
-      <c r="C441" s="2"/>
+        <v>1936</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>2644</v>
+      </c>
     </row>
     <row r="442" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A442" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>1936</v>
-      </c>
-      <c r="C442" s="2"/>
+        <v>2646</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>2645</v>
+      </c>
     </row>
     <row r="443" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A443" s="1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
     </row>
     <row r="444" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A444" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="B444" s="2"/>
-      <c r="C444" s="2"/>
+        <v>904</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>2647</v>
+      </c>
     </row>
     <row r="445" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A445" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C445" s="2"/>
+        <v>1934</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>2648</v>
+      </c>
     </row>
     <row r="446" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A446" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>1934</v>
-      </c>
-      <c r="C446" s="2"/>
+        <v>1933</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>2649</v>
+      </c>
     </row>
     <row r="447" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A447" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>1933</v>
-      </c>
-      <c r="C447" s="2"/>
+        <v>1932</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>2650</v>
+      </c>
     </row>
     <row r="448" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A448" s="1" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>1932</v>
-      </c>
-      <c r="C448" s="2"/>
+        <v>1931</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>2651</v>
+      </c>
     </row>
     <row r="449" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A449" s="1" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>1931</v>
-      </c>
-      <c r="C449" s="2"/>
+        <v>2653</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>2652</v>
+      </c>
     </row>
     <row r="450" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A450" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="B450" s="2"/>
-      <c r="C450" s="2"/>
+        <v>910</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>2654</v>
+      </c>
     </row>
     <row r="451" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A451" s="1" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>1930</v>
-      </c>
-      <c r="C451" s="2"/>
+        <v>1929</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>2655</v>
+      </c>
     </row>
     <row r="452" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A452" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="B452" s="2" t="s">
-        <v>1929</v>
-      </c>
+        <v>912</v>
+      </c>
+      <c r="B452" s="2"/>
       <c r="C452" s="2"/>
     </row>
     <row r="453" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A453" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="B453" s="2"/>
-      <c r="C453" s="2"/>
+        <v>913</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>2656</v>
+      </c>
     </row>
     <row r="454" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A454" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>1928</v>
-      </c>
-      <c r="C454" s="2"/>
+        <v>1927</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>2378</v>
+      </c>
     </row>
     <row r="455" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A455" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>1927</v>
-      </c>
-      <c r="C455" s="2"/>
+        <v>1926</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>2657</v>
+      </c>
     </row>
     <row r="456" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A456" s="1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>1926</v>
-      </c>
-      <c r="C456" s="2"/>
+        <v>1925</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>2658</v>
+      </c>
     </row>
     <row r="457" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A457" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>1925</v>
-      </c>
-      <c r="C457" s="2"/>
+        <v>1924</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>2659</v>
+      </c>
     </row>
     <row r="458" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A458" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="B458" s="2" t="s">
-        <v>1924</v>
-      </c>
-      <c r="C458" s="2"/>
+        <v>918</v>
+      </c>
+      <c r="B458" s="2"/>
+      <c r="C458" s="2" t="s">
+        <v>2660</v>
+      </c>
     </row>
     <row r="459" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A459" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="B459" s="2"/>
-      <c r="C459" s="2"/>
+        <v>919</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>2661</v>
+      </c>
     </row>
     <row r="460" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A460" s="1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>1814</v>
-      </c>
-      <c r="C460" s="2"/>
+        <v>1923</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>2662</v>
+      </c>
     </row>
     <row r="461" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A461" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>1923</v>
-      </c>
-      <c r="C461" s="2"/>
+        <v>1474</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>2663</v>
+      </c>
     </row>
     <row r="462" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A462" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C462" s="2"/>
+        <v>1922</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>2664</v>
+      </c>
     </row>
     <row r="463" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A463" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>1922</v>
-      </c>
-      <c r="C463" s="2"/>
+        <v>1921</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>2665</v>
+      </c>
     </row>
     <row r="464" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A464" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>1921</v>
-      </c>
-      <c r="C464" s="2"/>
+        <v>1920</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>2666</v>
+      </c>
     </row>
     <row r="465" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A465" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>1920</v>
-      </c>
-      <c r="C465" s="2"/>
+        <v>1919</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>2667</v>
+      </c>
     </row>
     <row r="466" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A466" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>1919</v>
-      </c>
-      <c r="C466" s="2"/>
+        <v>1918</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>2668</v>
+      </c>
     </row>
     <row r="467" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A467" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>1918</v>
-      </c>
-      <c r="C467" s="2"/>
+        <v>1917</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>2669</v>
+      </c>
     </row>
     <row r="468" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A468" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>1917</v>
-      </c>
-      <c r="C468" s="2"/>
+        <v>1916</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>2670</v>
+      </c>
     </row>
     <row r="469" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A469" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>1916</v>
-      </c>
-      <c r="C469" s="2"/>
+        <v>1915</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>2671</v>
+      </c>
     </row>
     <row r="470" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A470" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>1915</v>
-      </c>
-      <c r="C470" s="2"/>
+        <v>1914</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>2672</v>
+      </c>
     </row>
     <row r="471" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A471" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>1914</v>
-      </c>
-      <c r="C471" s="2"/>
+        <v>1913</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>2673</v>
+      </c>
     </row>
     <row r="472" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A472" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>1913</v>
-      </c>
-      <c r="C472" s="2"/>
+        <v>2675</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>2674</v>
+      </c>
     </row>
     <row r="473" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A473" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="B473" s="2"/>
-      <c r="C473" s="2"/>
+        <v>933</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>2676</v>
+      </c>
     </row>
     <row r="474" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A474" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>1858</v>
-      </c>
-      <c r="C474" s="2"/>
+        <v>1912</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>2677</v>
+      </c>
     </row>
     <row r="475" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A475" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>1912</v>
-      </c>
-      <c r="C475" s="2"/>
+        <v>1911</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>2678</v>
+      </c>
     </row>
     <row r="476" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A476" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>1911</v>
-      </c>
-      <c r="C476" s="2"/>
+        <v>1910</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>2679</v>
+      </c>
     </row>
     <row r="477" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A477" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>1910</v>
-      </c>
-      <c r="C477" s="2"/>
+        <v>1909</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>2680</v>
+      </c>
     </row>
     <row r="478" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A478" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>1909</v>
-      </c>
-      <c r="C478" s="2"/>
+        <v>1908</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>2681</v>
+      </c>
     </row>
     <row r="479" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A479" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>1908</v>
-      </c>
-      <c r="C479" s="2"/>
+        <v>1907</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>2682</v>
+      </c>
     </row>
     <row r="480" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A480" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>1907</v>
-      </c>
-      <c r="C480" s="2"/>
+        <v>1906</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>2683</v>
+      </c>
     </row>
     <row r="481" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A481" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>1906</v>
-      </c>
-      <c r="C481" s="2"/>
+        <v>2685</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>2684</v>
+      </c>
     </row>
     <row r="482" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A482" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="B482" s="2"/>
-      <c r="C482" s="2"/>
+        <v>942</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C482" s="2" t="s">
+        <v>2686</v>
+      </c>
     </row>
     <row r="483" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A483" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>1905</v>
-      </c>
-      <c r="C483" s="2"/>
+        <v>1904</v>
+      </c>
+      <c r="C483" s="2" t="s">
+        <v>2687</v>
+      </c>
     </row>
     <row r="484" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A484" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>1904</v>
-      </c>
-      <c r="C484" s="2"/>
+        <v>2689</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>2688</v>
+      </c>
     </row>
     <row r="485" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A485" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="B485" s="2"/>
-      <c r="C485" s="2"/>
+        <v>945</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>2690</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>2691</v>
+      </c>
     </row>
     <row r="486" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A486" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="B486" s="2"/>
-      <c r="C486" s="2"/>
+        <v>946</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>2692</v>
+      </c>
+      <c r="C486" s="2" t="s">
+        <v>2693</v>
+      </c>
     </row>
     <row r="487" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A487" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="B487" s="2"/>
-      <c r="C487" s="2"/>
+        <v>947</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>2694</v>
+      </c>
     </row>
     <row r="488" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A488" s="1" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>1903</v>
-      </c>
-      <c r="C488" s="2"/>
+        <v>1902</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>2695</v>
+      </c>
     </row>
     <row r="489" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A489" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>1902</v>
-      </c>
-      <c r="C489" s="2"/>
+        <v>1901</v>
+      </c>
+      <c r="C489" s="2" t="s">
+        <v>2696</v>
+      </c>
     </row>
     <row r="490" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A490" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>1901</v>
-      </c>
-      <c r="C490" s="2"/>
+        <v>1900</v>
+      </c>
+      <c r="C490" s="2" t="s">
+        <v>2697</v>
+      </c>
     </row>
     <row r="491" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A491" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>1900</v>
-      </c>
-      <c r="C491" s="2"/>
+        <v>1899</v>
+      </c>
+      <c r="C491" s="2" t="s">
+        <v>2698</v>
+      </c>
     </row>
     <row r="492" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A492" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="C492" s="2"/>
     </row>
     <row r="493" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A493" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>1898</v>
-      </c>
-      <c r="C493" s="2"/>
+        <v>1897</v>
+      </c>
+      <c r="C493" s="2" t="s">
+        <v>2699</v>
+      </c>
     </row>
     <row r="494" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A494" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>1897</v>
-      </c>
-      <c r="C494" s="2"/>
+        <v>1896</v>
+      </c>
+      <c r="C494" s="2" t="s">
+        <v>2700</v>
+      </c>
     </row>
     <row r="495" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A495" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>1896</v>
-      </c>
-      <c r="C495" s="2"/>
+        <v>1895</v>
+      </c>
+      <c r="C495" s="2" t="s">
+        <v>2701</v>
+      </c>
     </row>
     <row r="496" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A496" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>1895</v>
-      </c>
-      <c r="C496" s="2"/>
+        <v>1894</v>
+      </c>
+      <c r="C496" s="2" t="s">
+        <v>2702</v>
+      </c>
     </row>
     <row r="497" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A497" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C497" s="2"/>
+        <v>1893</v>
+      </c>
+      <c r="C497" s="2" t="s">
+        <v>2703</v>
+      </c>
     </row>
     <row r="498" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A498" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>1893</v>
-      </c>
-      <c r="C498" s="2"/>
+        <v>1892</v>
+      </c>
+      <c r="C498" s="2" t="s">
+        <v>2704</v>
+      </c>
     </row>
     <row r="499" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A499" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>1892</v>
-      </c>
-      <c r="C499" s="2"/>
+        <v>1891</v>
+      </c>
+      <c r="C499" s="2" t="s">
+        <v>2705</v>
+      </c>
     </row>
     <row r="500" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A500" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>1891</v>
-      </c>
-      <c r="C500" s="2"/>
+        <v>1890</v>
+      </c>
+      <c r="C500" s="2" t="s">
+        <v>2706</v>
+      </c>
     </row>
     <row r="501" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A501" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>1890</v>
-      </c>
-      <c r="C501" s="2"/>
+        <v>1889</v>
+      </c>
+      <c r="C501" s="2" t="s">
+        <v>2707</v>
+      </c>
     </row>
     <row r="502" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A502" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>1889</v>
-      </c>
-      <c r="C502" s="2"/>
+        <v>1575</v>
+      </c>
+      <c r="C502" s="2" t="s">
+        <v>2708</v>
+      </c>
     </row>
     <row r="503" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A503" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>1575</v>
-      </c>
-      <c r="C503" s="2"/>
+        <v>1888</v>
+      </c>
+      <c r="C503" s="2" t="s">
+        <v>2709</v>
+      </c>
     </row>
     <row r="504" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A504" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>1888</v>
-      </c>
-      <c r="C504" s="2"/>
+        <v>1887</v>
+      </c>
+      <c r="C504" s="2" t="s">
+        <v>2710</v>
+      </c>
     </row>
     <row r="505" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A505" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>1887</v>
-      </c>
-      <c r="C505" s="2"/>
+        <v>1886</v>
+      </c>
+      <c r="C505" s="2" t="s">
+        <v>2711</v>
+      </c>
     </row>
     <row r="506" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A506" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>1886</v>
-      </c>
-      <c r="C506" s="2"/>
+        <v>1885</v>
+      </c>
+      <c r="C506" s="2" t="s">
+        <v>2712</v>
+      </c>
     </row>
     <row r="507" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A507" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>1885</v>
-      </c>
-      <c r="C507" s="2"/>
+        <v>1884</v>
+      </c>
+      <c r="C507" s="2" t="s">
+        <v>2713</v>
+      </c>
     </row>
     <row r="508" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A508" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>1884</v>
-      </c>
-      <c r="C508" s="2"/>
+        <v>1883</v>
+      </c>
+      <c r="C508" s="2" t="s">
+        <v>2714</v>
+      </c>
     </row>
     <row r="509" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A509" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C509" s="2"/>
+        <v>1882</v>
+      </c>
+      <c r="C509" s="2" t="s">
+        <v>2715</v>
+      </c>
     </row>
     <row r="510" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A510" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>1882</v>
-      </c>
-      <c r="C510" s="2"/>
+        <v>1881</v>
+      </c>
+      <c r="C510" s="2" t="s">
+        <v>2716</v>
+      </c>
     </row>
     <row r="511" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A511" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>1881</v>
-      </c>
-      <c r="C511" s="2"/>
+        <v>1880</v>
+      </c>
+      <c r="C511" s="2" t="s">
+        <v>2717</v>
+      </c>
     </row>
     <row r="512" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A512" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>1880</v>
-      </c>
-      <c r="C512" s="2"/>
+        <v>1879</v>
+      </c>
+      <c r="C512" s="2" t="s">
+        <v>2718</v>
+      </c>
     </row>
     <row r="513" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A513" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>1879</v>
-      </c>
-      <c r="C513" s="2"/>
+        <v>1878</v>
+      </c>
+      <c r="C513" s="2" t="s">
+        <v>2719</v>
+      </c>
     </row>
     <row r="514" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A514" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>1878</v>
-      </c>
-      <c r="C514" s="2"/>
+        <v>1877</v>
+      </c>
+      <c r="C514" s="2" t="s">
+        <v>2720</v>
+      </c>
     </row>
     <row r="515" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A515" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>1877</v>
-      </c>
-      <c r="C515" s="2"/>
+        <v>1876</v>
+      </c>
+      <c r="C515" s="2" t="s">
+        <v>2721</v>
+      </c>
     </row>
     <row r="516" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A516" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>1876</v>
-      </c>
-      <c r="C516" s="2"/>
+        <v>1875</v>
+      </c>
+      <c r="C516" s="2" t="s">
+        <v>2722</v>
+      </c>
     </row>
     <row r="517" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A517" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>1875</v>
-      </c>
-      <c r="C517" s="2"/>
+        <v>1874</v>
+      </c>
+      <c r="C517" s="2" t="s">
+        <v>2723</v>
+      </c>
     </row>
     <row r="518" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A518" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>1874</v>
-      </c>
-      <c r="C518" s="2"/>
+        <v>1873</v>
+      </c>
+      <c r="C518" s="2" t="s">
+        <v>2724</v>
+      </c>
     </row>
     <row r="519" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A519" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>1873</v>
-      </c>
-      <c r="C519" s="2"/>
+        <v>1872</v>
+      </c>
+      <c r="C519" s="2" t="s">
+        <v>2725</v>
+      </c>
     </row>
     <row r="520" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A520" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>1872</v>
-      </c>
-      <c r="C520" s="2"/>
+        <v>1871</v>
+      </c>
+      <c r="C520" s="2" t="s">
+        <v>2726</v>
+      </c>
     </row>
     <row r="521" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A521" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>1871</v>
-      </c>
-      <c r="C521" s="2"/>
+        <v>1870</v>
+      </c>
+      <c r="C521" s="2" t="s">
+        <v>2727</v>
+      </c>
     </row>
     <row r="522" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A522" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>1870</v>
-      </c>
-      <c r="C522" s="2"/>
+        <v>1869</v>
+      </c>
+      <c r="C522" s="2" t="s">
+        <v>2728</v>
+      </c>
     </row>
     <row r="523" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A523" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>1869</v>
-      </c>
-      <c r="C523" s="2"/>
+        <v>1868</v>
+      </c>
+      <c r="C523" s="2" t="s">
+        <v>2729</v>
+      </c>
     </row>
     <row r="524" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A524" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>1868</v>
-      </c>
-      <c r="C524" s="2"/>
+        <v>1512</v>
+      </c>
+      <c r="C524" s="2" t="s">
+        <v>2278</v>
+      </c>
     </row>
     <row r="525" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A525" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C525" s="2"/>
+        <v>1867</v>
+      </c>
+      <c r="C525" s="2" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="526" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A526" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C526" s="2"/>
+        <v>1866</v>
+      </c>
+      <c r="C526" s="2" t="s">
+        <v>2731</v>
+      </c>
     </row>
     <row r="527" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A527" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>1866</v>
-      </c>
-      <c r="C527" s="2"/>
+        <v>1865</v>
+      </c>
+      <c r="C527" s="2" t="s">
+        <v>2732</v>
+      </c>
     </row>
     <row r="528" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A528" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>1865</v>
-      </c>
-      <c r="C528" s="2"/>
+        <v>1864</v>
+      </c>
+      <c r="C528" s="2" t="s">
+        <v>2733</v>
+      </c>
     </row>
     <row r="529" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A529" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>1864</v>
-      </c>
-      <c r="C529" s="2"/>
+        <v>1863</v>
+      </c>
+      <c r="C529" s="2" t="s">
+        <v>2734</v>
+      </c>
     </row>
     <row r="530" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A530" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>1863</v>
-      </c>
-      <c r="C530" s="2"/>
+        <v>1862</v>
+      </c>
+      <c r="C530" s="2" t="s">
+        <v>2735</v>
+      </c>
     </row>
     <row r="531" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A531" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>1862</v>
-      </c>
-      <c r="C531" s="2"/>
+        <v>1861</v>
+      </c>
+      <c r="C531" s="2" t="s">
+        <v>2736</v>
+      </c>
     </row>
     <row r="532" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A532" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>1861</v>
-      </c>
-      <c r="C532" s="2"/>
+        <v>1860</v>
+      </c>
+      <c r="C532" s="2" t="s">
+        <v>2737</v>
+      </c>
     </row>
     <row r="533" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A533" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>1860</v>
-      </c>
-      <c r="C533" s="2"/>
+        <v>1859</v>
+      </c>
+      <c r="C533" s="2" t="s">
+        <v>2738</v>
+      </c>
     </row>
     <row r="534" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A534" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>1859</v>
-      </c>
-      <c r="C534" s="2"/>
+        <v>1858</v>
+      </c>
+      <c r="C534" s="2" t="s">
+        <v>2676</v>
+      </c>
     </row>
     <row r="535" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A535" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="C535" s="2"/>
     </row>
     <row r="536" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A536" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C536" s="2"/>
+        <v>1856</v>
+      </c>
+      <c r="C536" s="2" t="s">
+        <v>2739</v>
+      </c>
     </row>
     <row r="537" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A537" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>1856</v>
-      </c>
-      <c r="C537" s="2"/>
+        <v>1855</v>
+      </c>
+      <c r="C537" s="2" t="s">
+        <v>2740</v>
+      </c>
     </row>
     <row r="538" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A538" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="C538" s="2"/>
+        <v>1854</v>
+      </c>
+      <c r="C538" s="2" t="s">
+        <v>2741</v>
+      </c>
     </row>
     <row r="539" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A539" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>1854</v>
-      </c>
-      <c r="C539" s="2"/>
+        <v>1853</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>2742</v>
+      </c>
     </row>
     <row r="540" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A540" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>1853</v>
-      </c>
-      <c r="C540" s="2"/>
+        <v>1852</v>
+      </c>
+      <c r="C540" s="2" t="s">
+        <v>2743</v>
+      </c>
     </row>
     <row r="541" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A541" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>1852</v>
-      </c>
-      <c r="C541" s="2"/>
+        <v>1851</v>
+      </c>
+      <c r="C541" s="2" t="s">
+        <v>2744</v>
+      </c>
     </row>
     <row r="542" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A542" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="C542" s="2"/>
+        <v>1850</v>
+      </c>
+      <c r="C542" s="2" t="s">
+        <v>2745</v>
+      </c>
     </row>
     <row r="543" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A543" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>1850</v>
-      </c>
-      <c r="C543" s="2"/>
+        <v>1849</v>
+      </c>
+      <c r="C543" s="2" t="s">
+        <v>2746</v>
+      </c>
     </row>
     <row r="544" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A544" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>1849</v>
-      </c>
-      <c r="C544" s="2"/>
+        <v>1848</v>
+      </c>
+      <c r="C544" s="2" t="s">
+        <v>2747</v>
+      </c>
     </row>
     <row r="545" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A545" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>1848</v>
-      </c>
-      <c r="C545" s="2"/>
+        <v>1847</v>
+      </c>
+      <c r="C545" s="2" t="s">
+        <v>2748</v>
+      </c>
     </row>
     <row r="546" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A546" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>1847</v>
-      </c>
-      <c r="C546" s="2"/>
+        <v>1846</v>
+      </c>
+      <c r="C546" s="2" t="s">
+        <v>2749</v>
+      </c>
     </row>
     <row r="547" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A547" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>1846</v>
-      </c>
-      <c r="C547" s="2"/>
+        <v>1845</v>
+      </c>
+      <c r="C547" s="2" t="s">
+        <v>2241</v>
+      </c>
     </row>
     <row r="548" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A548" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>1845</v>
-      </c>
-      <c r="C548" s="2"/>
+        <v>1844</v>
+      </c>
+      <c r="C548" s="2" t="s">
+        <v>2750</v>
+      </c>
     </row>
     <row r="549" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A549" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>1844</v>
-      </c>
-      <c r="C549" s="2"/>
+        <v>1843</v>
+      </c>
+      <c r="C549" s="2" t="s">
+        <v>2751</v>
+      </c>
     </row>
     <row r="550" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A550" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="C550" s="2"/>
     </row>
     <row r="551" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A551" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>1842</v>
-      </c>
-      <c r="C551" s="2"/>
+        <v>1841</v>
+      </c>
+      <c r="C551" s="2" t="s">
+        <v>2752</v>
+      </c>
     </row>
     <row r="552" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A552" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>1841</v>
-      </c>
-      <c r="C552" s="2"/>
+        <v>1840</v>
+      </c>
+      <c r="C552" s="2" t="s">
+        <v>2753</v>
+      </c>
     </row>
     <row r="553" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A553" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>1840</v>
-      </c>
-      <c r="C553" s="2"/>
+        <v>1839</v>
+      </c>
+      <c r="C553" s="2" t="s">
+        <v>2577</v>
+      </c>
     </row>
     <row r="554" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A554" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B554" s="2" t="s">
-        <v>1839</v>
-      </c>
-      <c r="C554" s="2"/>
+        <v>1014</v>
+      </c>
+      <c r="B554" s="2"/>
+      <c r="C554" s="2" t="s">
+        <v>2754</v>
+      </c>
     </row>
     <row r="555" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A555" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B555" s="2"/>
-      <c r="C555" s="2"/>
+        <v>1015</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C555" s="2" t="s">
+        <v>2755</v>
+      </c>
     </row>
     <row r="556" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A556" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>1838</v>
-      </c>
-      <c r="C556" s="2"/>
+        <v>1837</v>
+      </c>
+      <c r="C556" s="2" t="s">
+        <v>2756</v>
+      </c>
     </row>
     <row r="557" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A557" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>1837</v>
-      </c>
-      <c r="C557" s="2"/>
+        <v>1836</v>
+      </c>
+      <c r="C557" s="2" t="s">
+        <v>2757</v>
+      </c>
     </row>
     <row r="558" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A558" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>1836</v>
-      </c>
-      <c r="C558" s="2"/>
+        <v>1835</v>
+      </c>
+      <c r="C558" s="2" t="s">
+        <v>2758</v>
+      </c>
     </row>
     <row r="559" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A559" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>1835</v>
-      </c>
-      <c r="C559" s="2"/>
+        <v>1834</v>
+      </c>
+      <c r="C559" s="2" t="s">
+        <v>2759</v>
+      </c>
     </row>
     <row r="560" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A560" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>1834</v>
-      </c>
-      <c r="C560" s="2"/>
+        <v>1833</v>
+      </c>
+      <c r="C560" s="2" t="s">
+        <v>2760</v>
+      </c>
     </row>
     <row r="561" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A561" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>1833</v>
-      </c>
-      <c r="C561" s="2"/>
+        <v>1832</v>
+      </c>
+      <c r="C561" s="2" t="s">
+        <v>2761</v>
+      </c>
     </row>
     <row r="562" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A562" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>1832</v>
-      </c>
-      <c r="C562" s="2"/>
+        <v>1831</v>
+      </c>
+      <c r="C562" s="2" t="s">
+        <v>2762</v>
+      </c>
     </row>
     <row r="563" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A563" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>1831</v>
-      </c>
-      <c r="C563" s="2"/>
+        <v>1830</v>
+      </c>
+      <c r="C563" s="2" t="s">
+        <v>2763</v>
+      </c>
     </row>
     <row r="564" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A564" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>1830</v>
-      </c>
-      <c r="C564" s="2"/>
+        <v>1829</v>
+      </c>
+      <c r="C564" s="2" t="s">
+        <v>2764</v>
+      </c>
     </row>
     <row r="565" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A565" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>1829</v>
-      </c>
-      <c r="C565" s="2"/>
+        <v>1828</v>
+      </c>
+      <c r="C565" s="2" t="s">
+        <v>2545</v>
+      </c>
     </row>
     <row r="566" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A566" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>1828</v>
-      </c>
-      <c r="C566" s="2"/>
+        <v>1827</v>
+      </c>
+      <c r="C566" s="2" t="s">
+        <v>2765</v>
+      </c>
     </row>
     <row r="567" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A567" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>1827</v>
-      </c>
-      <c r="C567" s="2"/>
+        <v>1826</v>
+      </c>
+      <c r="C567" s="2" t="s">
+        <v>2766</v>
+      </c>
     </row>
     <row r="568" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A568" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>1826</v>
-      </c>
-      <c r="C568" s="2"/>
+        <v>1825</v>
+      </c>
+      <c r="C568" s="2" t="s">
+        <v>2767</v>
+      </c>
     </row>
     <row r="569" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A569" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>1825</v>
-      </c>
-      <c r="C569" s="2"/>
+        <v>2769</v>
+      </c>
+      <c r="C569" s="2" t="s">
+        <v>2768</v>
+      </c>
     </row>
     <row r="570" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A570" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B570" s="2"/>
-      <c r="C570" s="2"/>
+        <v>1030</v>
+      </c>
+      <c r="B570" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C570" s="2" t="s">
+        <v>2770</v>
+      </c>
     </row>
     <row r="571" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A571" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>1824</v>
-      </c>
-      <c r="C571" s="2"/>
+        <v>1823</v>
+      </c>
+      <c r="C571" s="2" t="s">
+        <v>2771</v>
+      </c>
     </row>
     <row r="572" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A572" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>1823</v>
-      </c>
-      <c r="C572" s="2"/>
+        <v>1822</v>
+      </c>
+      <c r="C572" s="2" t="s">
+        <v>2772</v>
+      </c>
     </row>
     <row r="573" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A573" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>1822</v>
-      </c>
-      <c r="C573" s="2"/>
+        <v>1821</v>
+      </c>
+      <c r="C573" s="2" t="s">
+        <v>2773</v>
+      </c>
     </row>
     <row r="574" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A574" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>1821</v>
-      </c>
-      <c r="C574" s="2"/>
+        <v>1820</v>
+      </c>
+      <c r="C574" s="2" t="s">
+        <v>2774</v>
+      </c>
     </row>
     <row r="575" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A575" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>1820</v>
-      </c>
-      <c r="C575" s="2"/>
+        <v>1819</v>
+      </c>
+      <c r="C575" s="2" t="s">
+        <v>2775</v>
+      </c>
     </row>
     <row r="576" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A576" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>1819</v>
-      </c>
-      <c r="C576" s="2"/>
+        <v>1818</v>
+      </c>
+      <c r="C576" s="2" t="s">
+        <v>2776</v>
+      </c>
     </row>
     <row r="577" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A577" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>1818</v>
-      </c>
-      <c r="C577" s="2"/>
+        <v>1817</v>
+      </c>
+      <c r="C577" s="2" t="s">
+        <v>2777</v>
+      </c>
     </row>
     <row r="578" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A578" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>1817</v>
-      </c>
-      <c r="C578" s="2"/>
+        <v>1816</v>
+      </c>
+      <c r="C578" s="2" t="s">
+        <v>2778</v>
+      </c>
     </row>
     <row r="579" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A579" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>1816</v>
-      </c>
-      <c r="C579" s="2"/>
+        <v>1815</v>
+      </c>
+      <c r="C579" s="2" t="s">
+        <v>2779</v>
+      </c>
     </row>
     <row r="580" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A580" s="1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>1815</v>
-      </c>
-      <c r="C580" s="2"/>
+        <v>1814</v>
+      </c>
+      <c r="C580" s="2" t="s">
+        <v>2780</v>
+      </c>
     </row>
     <row r="581" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A581" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>1814</v>
-      </c>
-      <c r="C581" s="2"/>
+        <v>1813</v>
+      </c>
+      <c r="C581" s="2" t="s">
+        <v>2781</v>
+      </c>
     </row>
     <row r="582" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A582" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C582" s="2"/>
+        <v>1812</v>
+      </c>
+      <c r="C582" s="2" t="s">
+        <v>2782</v>
+      </c>
     </row>
     <row r="583" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A583" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>1812</v>
-      </c>
-      <c r="C583" s="2"/>
+        <v>1811</v>
+      </c>
+      <c r="C583" s="2" t="s">
+        <v>2783</v>
+      </c>
     </row>
     <row r="584" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A584" s="1" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B584" s="2" t="s">
-        <v>1811</v>
-      </c>
-      <c r="C584" s="2"/>
+        <v>1044</v>
+      </c>
+      <c r="B584" s="2"/>
+      <c r="C584" s="2" t="s">
+        <v>2784</v>
+      </c>
     </row>
     <row r="585" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A585" s="1" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B585" s="2"/>
-      <c r="C585" s="2"/>
+        <v>1045</v>
+      </c>
+      <c r="B585" s="2" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C585" s="2" t="s">
+        <v>2785</v>
+      </c>
     </row>
     <row r="586" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A586" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>1810</v>
-      </c>
-      <c r="C586" s="2"/>
+        <v>1809</v>
+      </c>
+      <c r="C586" s="2" t="s">
+        <v>2786</v>
+      </c>
     </row>
     <row r="587" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A587" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>1809</v>
-      </c>
-      <c r="C587" s="2"/>
+        <v>1808</v>
+      </c>
+      <c r="C587" s="2" t="s">
+        <v>2787</v>
+      </c>
     </row>
     <row r="588" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A588" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>1808</v>
-      </c>
-      <c r="C588" s="2"/>
+        <v>1807</v>
+      </c>
+      <c r="C588" s="2" t="s">
+        <v>2788</v>
+      </c>
     </row>
     <row r="589" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A589" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>1807</v>
-      </c>
-      <c r="C589" s="2"/>
+        <v>1806</v>
+      </c>
+      <c r="C589" s="2" t="s">
+        <v>2789</v>
+      </c>
     </row>
     <row r="590" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A590" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>1806</v>
-      </c>
-      <c r="C590" s="2"/>
+        <v>1805</v>
+      </c>
+      <c r="C590" s="2" t="s">
+        <v>2790</v>
+      </c>
     </row>
     <row r="591" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A591" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>1805</v>
-      </c>
-      <c r="C591" s="2"/>
+        <v>1804</v>
+      </c>
+      <c r="C591" s="2" t="s">
+        <v>2791</v>
+      </c>
     </row>
     <row r="592" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A592" s="1" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="C592" s="2"/>
     </row>
     <row r="593" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A593" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>1803</v>
-      </c>
-      <c r="C593" s="2"/>
+        <v>1802</v>
+      </c>
+      <c r="C593" s="2" t="s">
+        <v>2792</v>
+      </c>
     </row>
     <row r="594" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A594" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B594" s="2" t="s">
-        <v>1802</v>
-      </c>
-      <c r="C594" s="2"/>
+        <v>1054</v>
+      </c>
+      <c r="B594" s="2"/>
+      <c r="C594" s="2" t="s">
+        <v>2793</v>
+      </c>
     </row>
     <row r="595" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A595" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B595" s="2"/>
-      <c r="C595" s="2"/>
+        <v>1055</v>
+      </c>
+      <c r="B595" s="2" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C595" s="2" t="s">
+        <v>2794</v>
+      </c>
     </row>
     <row r="596" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A596" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>1801</v>
-      </c>
-      <c r="C596" s="2"/>
+        <v>1800</v>
+      </c>
+      <c r="C596" s="2" t="s">
+        <v>2795</v>
+      </c>
     </row>
     <row r="597" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A597" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>1800</v>
-      </c>
-      <c r="C597" s="2"/>
+        <v>1799</v>
+      </c>
+      <c r="C597" s="2" t="s">
+        <v>2796</v>
+      </c>
     </row>
     <row r="598" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A598" s="1" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>1799</v>
-      </c>
-      <c r="C598" s="2"/>
+        <v>1798</v>
+      </c>
+      <c r="C598" s="2" t="s">
+        <v>2797</v>
+      </c>
     </row>
     <row r="599" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A599" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>1798</v>
-      </c>
-      <c r="C599" s="2"/>
+        <v>1797</v>
+      </c>
+      <c r="C599" s="2" t="s">
+        <v>2798</v>
+      </c>
     </row>
     <row r="600" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A600" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="C600" s="2"/>
     </row>
     <row r="601" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A601" s="1" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>1796</v>
-      </c>
-      <c r="C601" s="2"/>
+        <v>1795</v>
+      </c>
+      <c r="C601" s="2" t="s">
+        <v>2799</v>
+      </c>
     </row>
     <row r="602" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A602" s="1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>1795</v>
-      </c>
-      <c r="C602" s="2"/>
+        <v>1794</v>
+      </c>
+      <c r="C602" s="2" t="s">
+        <v>2800</v>
+      </c>
     </row>
     <row r="603" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A603" s="1" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>1794</v>
-      </c>
-      <c r="C603" s="2"/>
+        <v>1793</v>
+      </c>
+      <c r="C603" s="2" t="s">
+        <v>2801</v>
+      </c>
     </row>
     <row r="604" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A604" s="1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B604" s="2"/>
-      <c r="C604" s="2"/>
+        <v>1065</v>
+      </c>
+      <c r="B604" s="2" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C604" s="2" t="s">
+        <v>2802</v>
+      </c>
     </row>
     <row r="605" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A605" s="1" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>1793</v>
-      </c>
-      <c r="C605" s="2"/>
+        <v>1791</v>
+      </c>
+      <c r="C605" s="2" t="s">
+        <v>2803</v>
+      </c>
     </row>
     <row r="606" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A606" s="1" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>1792</v>
-      </c>
-      <c r="C606" s="2"/>
+        <v>1790</v>
+      </c>
+      <c r="C606" s="2" t="s">
+        <v>2804</v>
+      </c>
     </row>
     <row r="607" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A607" s="1" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>1791</v>
-      </c>
-      <c r="C607" s="2"/>
+        <v>1789</v>
+      </c>
+      <c r="C607" s="2" t="s">
+        <v>2805</v>
+      </c>
     </row>
     <row r="608" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A608" s="1" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>1790</v>
-      </c>
-      <c r="C608" s="2"/>
+        <v>1788</v>
+      </c>
+      <c r="C608" s="2" t="s">
+        <v>2806</v>
+      </c>
     </row>
     <row r="609" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A609" s="1" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>1789</v>
-      </c>
-      <c r="C609" s="2"/>
+        <v>1787</v>
+      </c>
+      <c r="C609" s="2" t="s">
+        <v>2807</v>
+      </c>
     </row>
     <row r="610" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A610" s="1" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C610" s="2"/>
+        <v>1786</v>
+      </c>
+      <c r="C610" s="2" t="s">
+        <v>2327</v>
+      </c>
     </row>
     <row r="611" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A611" s="1" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>1787</v>
-      </c>
-      <c r="C611" s="2"/>
+        <v>1785</v>
+      </c>
+      <c r="C611" s="2" t="s">
+        <v>2808</v>
+      </c>
     </row>
     <row r="612" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A612" s="1" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>1786</v>
-      </c>
-      <c r="C612" s="2"/>
+        <v>1784</v>
+      </c>
+      <c r="C612" s="2" t="s">
+        <v>2809</v>
+      </c>
     </row>
     <row r="613" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A613" s="1" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>1785</v>
-      </c>
-      <c r="C613" s="2"/>
+        <v>1783</v>
+      </c>
+      <c r="C613" s="2" t="s">
+        <v>2810</v>
+      </c>
     </row>
     <row r="614" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A614" s="1" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="C614" s="2"/>
     </row>
     <row r="615" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A615" s="1" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>1783</v>
-      </c>
-      <c r="C615" s="2"/>
+        <v>1781</v>
+      </c>
+      <c r="C615" s="2" t="s">
+        <v>2811</v>
+      </c>
     </row>
     <row r="616" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A616" s="1" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>1782</v>
-      </c>
-      <c r="C616" s="2"/>
+        <v>1780</v>
+      </c>
+      <c r="C616" s="2" t="s">
+        <v>2812</v>
+      </c>
     </row>
     <row r="617" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A617" s="1" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>1781</v>
-      </c>
-      <c r="C617" s="2"/>
+        <v>1779</v>
+      </c>
+      <c r="C617" s="2" t="s">
+        <v>2813</v>
+      </c>
     </row>
     <row r="618" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A618" s="1" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>1780</v>
-      </c>
-      <c r="C618" s="2"/>
+        <v>1778</v>
+      </c>
+      <c r="C618" s="2" t="s">
+        <v>2814</v>
+      </c>
     </row>
     <row r="619" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A619" s="1" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B619" s="2" t="s">
-        <v>1779</v>
-      </c>
+        <v>1080</v>
+      </c>
+      <c r="B619" s="2"/>
       <c r="C619" s="2"/>
     </row>
     <row r="620" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A620" s="1" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>1778</v>
-      </c>
-      <c r="C620" s="2"/>
+        <v>1777</v>
+      </c>
+      <c r="C620" s="2" t="s">
+        <v>2815</v>
+      </c>
     </row>
     <row r="621" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A621" s="1" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B621" s="2"/>
-      <c r="C621" s="2"/>
+        <v>1083</v>
+      </c>
+      <c r="B621" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C621" s="2" t="s">
+        <v>2816</v>
+      </c>
     </row>
     <row r="622" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A622" s="1" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B622" s="2"/>
-      <c r="C622" s="2"/>
+        <v>1084</v>
+      </c>
+      <c r="B622" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C622" s="2" t="s">
+        <v>2817</v>
+      </c>
     </row>
     <row r="623" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A623" s="1" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>1777</v>
-      </c>
-      <c r="C623" s="2"/>
+        <v>1774</v>
+      </c>
+      <c r="C623" s="2" t="s">
+        <v>2818</v>
+      </c>
     </row>
     <row r="624" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A624" s="1" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>1776</v>
-      </c>
-      <c r="C624" s="2"/>
+        <v>1773</v>
+      </c>
+      <c r="C624" s="2" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="625" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A625" s="1" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>1775</v>
-      </c>
-      <c r="C625" s="2"/>
+        <v>1772</v>
+      </c>
+      <c r="C625" s="2" t="s">
+        <v>2819</v>
+      </c>
     </row>
     <row r="626" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A626" s="1" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>1774</v>
-      </c>
-      <c r="C626" s="2"/>
+        <v>1771</v>
+      </c>
+      <c r="C626" s="2" t="s">
+        <v>2820</v>
+      </c>
     </row>
     <row r="627" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A627" s="1" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>1773</v>
-      </c>
-      <c r="C627" s="2"/>
+        <v>1770</v>
+      </c>
+      <c r="C627" s="2" t="s">
+        <v>2821</v>
+      </c>
     </row>
     <row r="628" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A628" s="1" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>1772</v>
-      </c>
-      <c r="C628" s="2"/>
+        <v>2823</v>
+      </c>
+      <c r="C628" s="2" t="s">
+        <v>2822</v>
+      </c>
     </row>
     <row r="629" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A629" s="1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B629" s="2" t="s">
-        <v>1771</v>
-      </c>
-      <c r="C629" s="2"/>
+        <v>1091</v>
+      </c>
+      <c r="B629" s="2"/>
+      <c r="C629" s="2" t="s">
+        <v>2233</v>
+      </c>
     </row>
     <row r="630" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A630" s="1" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="C630" s="2"/>
     </row>
     <row r="631" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A631" s="1" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B631" s="2"/>
-      <c r="C631" s="2"/>
+        <v>1093</v>
+      </c>
+      <c r="B631" s="2" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C631" s="2" t="s">
+        <v>2824</v>
+      </c>
     </row>
     <row r="632" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A632" s="1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B632" s="2"/>
-      <c r="C632" s="2"/>
+        <v>1094</v>
+      </c>
+      <c r="B632" s="2" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C632" s="2" t="s">
+        <v>2825</v>
+      </c>
     </row>
     <row r="633" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A633" s="1" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>1769</v>
-      </c>
-      <c r="C633" s="2"/>
+        <v>1766</v>
+      </c>
+      <c r="C633" s="2" t="s">
+        <v>2826</v>
+      </c>
     </row>
     <row r="634" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A634" s="1" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>1768</v>
-      </c>
-      <c r="C634" s="2"/>
+        <v>1765</v>
+      </c>
+      <c r="C634" s="2" t="s">
+        <v>2827</v>
+      </c>
     </row>
     <row r="635" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A635" s="1" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B635" s="2" t="s">
-        <v>1767</v>
-      </c>
-      <c r="C635" s="2"/>
+        <v>1097</v>
+      </c>
+      <c r="B635" s="2"/>
+      <c r="C635" s="2" t="s">
+        <v>2828</v>
+      </c>
     </row>
     <row r="636" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A636" s="1" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>1766</v>
-      </c>
-      <c r="C636" s="2"/>
+        <v>1764</v>
+      </c>
+      <c r="C636" s="2" t="s">
+        <v>2829</v>
+      </c>
     </row>
     <row r="637" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A637" s="1" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>1765</v>
-      </c>
-      <c r="C637" s="2"/>
+        <v>1763</v>
+      </c>
+      <c r="C637" s="2" t="s">
+        <v>2830</v>
+      </c>
     </row>
     <row r="638" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A638" s="1" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B638" s="2"/>
-      <c r="C638" s="2"/>
+        <v>1100</v>
+      </c>
+      <c r="B638" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C638" s="2" t="s">
+        <v>2831</v>
+      </c>
     </row>
     <row r="639" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A639" s="1" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>1764</v>
-      </c>
-      <c r="C639" s="2"/>
+        <v>1761</v>
+      </c>
+      <c r="C639" s="2" t="s">
+        <v>2832</v>
+      </c>
     </row>
     <row r="640" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A640" s="1" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>1763</v>
-      </c>
-      <c r="C640" s="2"/>
+        <v>1760</v>
+      </c>
+      <c r="C640" s="2" t="s">
+        <v>2833</v>
+      </c>
     </row>
     <row r="641" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A641" s="1" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>1762</v>
-      </c>
-      <c r="C641" s="2"/>
+        <v>1759</v>
+      </c>
+      <c r="C641" s="2" t="s">
+        <v>2834</v>
+      </c>
     </row>
     <row r="642" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A642" s="1" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>1761</v>
-      </c>
-      <c r="C642" s="2"/>
+        <v>1758</v>
+      </c>
+      <c r="C642" s="2" t="s">
+        <v>2835</v>
+      </c>
     </row>
     <row r="643" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A643" s="1" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>1760</v>
-      </c>
-      <c r="C643" s="2"/>
+        <v>1757</v>
+      </c>
+      <c r="C643" s="2" t="s">
+        <v>2836</v>
+      </c>
     </row>
     <row r="644" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A644" s="1" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>1759</v>
-      </c>
-      <c r="C644" s="2"/>
+        <v>1756</v>
+      </c>
+      <c r="C644" s="2" t="s">
+        <v>2837</v>
+      </c>
     </row>
     <row r="645" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A645" s="1" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>1758</v>
-      </c>
-      <c r="C645" s="2"/>
+        <v>1755</v>
+      </c>
+      <c r="C645" s="2" t="s">
+        <v>2838</v>
+      </c>
     </row>
     <row r="646" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A646" s="1" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>1757</v>
-      </c>
-      <c r="C646" s="2"/>
+        <v>1754</v>
+      </c>
+      <c r="C646" s="2" t="s">
+        <v>2839</v>
+      </c>
     </row>
     <row r="647" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A647" s="1" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>1756</v>
-      </c>
-      <c r="C647" s="2"/>
+        <v>1753</v>
+      </c>
+      <c r="C647" s="2" t="s">
+        <v>2840</v>
+      </c>
     </row>
     <row r="648" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A648" s="1" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>1755</v>
-      </c>
-      <c r="C648" s="2"/>
+        <v>1752</v>
+      </c>
+      <c r="C648" s="2" t="s">
+        <v>2841</v>
+      </c>
     </row>
     <row r="649" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A649" s="1" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>1754</v>
-      </c>
-      <c r="C649" s="2"/>
+        <v>1751</v>
+      </c>
+      <c r="C649" s="2" t="s">
+        <v>2842</v>
+      </c>
     </row>
     <row r="650" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A650" s="1" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>1753</v>
-      </c>
-      <c r="C650" s="2"/>
+        <v>1750</v>
+      </c>
+      <c r="C650" s="2" t="s">
+        <v>2843</v>
+      </c>
     </row>
     <row r="651" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A651" s="1" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>1752</v>
-      </c>
-      <c r="C651" s="2"/>
+        <v>1749</v>
+      </c>
+      <c r="C651" s="2" t="s">
+        <v>2844</v>
+      </c>
     </row>
     <row r="652" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A652" s="1" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>1751</v>
-      </c>
-      <c r="C652" s="2"/>
+        <v>1748</v>
+      </c>
+      <c r="C652" s="2" t="s">
+        <v>2845</v>
+      </c>
     </row>
     <row r="653" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A653" s="1" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>1750</v>
-      </c>
-      <c r="C653" s="2"/>
+        <v>1747</v>
+      </c>
+      <c r="C653" s="2" t="s">
+        <v>2846</v>
+      </c>
     </row>
     <row r="654" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A654" s="1" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>1749</v>
-      </c>
-      <c r="C654" s="2"/>
+        <v>2848</v>
+      </c>
+      <c r="C654" s="2" t="s">
+        <v>2847</v>
+      </c>
     </row>
     <row r="655" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A655" s="1" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>1748</v>
-      </c>
-      <c r="C655" s="2"/>
+        <v>1745</v>
+      </c>
+      <c r="C655" s="2" t="s">
+        <v>2849</v>
+      </c>
     </row>
     <row r="656" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A656" s="1" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>1747</v>
-      </c>
-      <c r="C656" s="2"/>
+        <v>1744</v>
+      </c>
+      <c r="C656" s="2" t="s">
+        <v>2850</v>
+      </c>
     </row>
     <row r="657" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A657" s="1" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>1746</v>
-      </c>
-      <c r="C657" s="2"/>
+        <v>1743</v>
+      </c>
+      <c r="C657" s="2" t="s">
+        <v>2851</v>
+      </c>
     </row>
     <row r="658" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A658" s="1" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>1745</v>
-      </c>
-      <c r="C658" s="2"/>
+        <v>1742</v>
+      </c>
+      <c r="C658" s="2" t="s">
+        <v>2852</v>
+      </c>
     </row>
     <row r="659" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A659" s="1" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>1744</v>
-      </c>
-      <c r="C659" s="2"/>
+        <v>2854</v>
+      </c>
+      <c r="C659" s="2" t="s">
+        <v>2853</v>
+      </c>
     </row>
     <row r="660" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A660" s="1" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>1743</v>
-      </c>
-      <c r="C660" s="2"/>
+        <v>1741</v>
+      </c>
+      <c r="C660" s="2" t="s">
+        <v>2855</v>
+      </c>
     </row>
     <row r="661" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A661" s="1" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>1742</v>
-      </c>
-      <c r="C661" s="2"/>
+        <v>1740</v>
+      </c>
+      <c r="C661" s="2" t="s">
+        <v>2856</v>
+      </c>
     </row>
     <row r="662" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A662" s="1" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B662" s="2"/>
-      <c r="C662" s="2"/>
+        <v>1124</v>
+      </c>
+      <c r="B662" s="2" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C662" s="2" t="s">
+        <v>2857</v>
+      </c>
     </row>
     <row r="663" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A663" s="1" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>1741</v>
-      </c>
-      <c r="C663" s="2"/>
+        <v>1738</v>
+      </c>
+      <c r="C663" s="2" t="s">
+        <v>2858</v>
+      </c>
     </row>
     <row r="664" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A664" s="1" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>1740</v>
-      </c>
-      <c r="C664" s="2"/>
+        <v>1737</v>
+      </c>
+      <c r="C664" s="2" t="s">
+        <v>2859</v>
+      </c>
     </row>
     <row r="665" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A665" s="1" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C665" s="2"/>
+        <v>1736</v>
+      </c>
+      <c r="C665" s="2" t="s">
+        <v>2860</v>
+      </c>
     </row>
     <row r="666" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A666" s="1" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>1738</v>
-      </c>
-      <c r="C666" s="2"/>
+        <v>1735</v>
+      </c>
+      <c r="C666" s="2" t="s">
+        <v>2861</v>
+      </c>
     </row>
     <row r="667" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A667" s="1" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>1737</v>
-      </c>
-      <c r="C667" s="2"/>
+        <v>1646</v>
+      </c>
+      <c r="C667" s="2" t="s">
+        <v>2862</v>
+      </c>
     </row>
     <row r="668" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A668" s="1" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="C668" s="2"/>
+        <v>1734</v>
+      </c>
+      <c r="C668" s="2" t="s">
+        <v>2863</v>
+      </c>
     </row>
     <row r="669" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A669" s="1" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>1735</v>
-      </c>
-      <c r="C669" s="2"/>
+        <v>1733</v>
+      </c>
+      <c r="C669" s="2" t="s">
+        <v>2864</v>
+      </c>
     </row>
     <row r="670" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A670" s="1" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>1646</v>
-      </c>
-      <c r="C670" s="2"/>
+        <v>1732</v>
+      </c>
+      <c r="C670" s="2" t="s">
+        <v>2865</v>
+      </c>
     </row>
     <row r="671" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A671" s="1" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>1734</v>
-      </c>
-      <c r="C671" s="2"/>
+        <v>1731</v>
+      </c>
+      <c r="C671" s="2" t="s">
+        <v>2866</v>
+      </c>
     </row>
     <row r="672" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A672" s="1" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>1733</v>
-      </c>
-      <c r="C672" s="2"/>
+        <v>1730</v>
+      </c>
+      <c r="C672" s="2" t="s">
+        <v>2867</v>
+      </c>
     </row>
     <row r="673" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A673" s="1" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>1732</v>
-      </c>
-      <c r="C673" s="2"/>
+        <v>1729</v>
+      </c>
+      <c r="C673" s="2" t="s">
+        <v>2868</v>
+      </c>
     </row>
     <row r="674" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A674" s="1" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>1731</v>
-      </c>
-      <c r="C674" s="2"/>
+        <v>1728</v>
+      </c>
+      <c r="C674" s="2" t="s">
+        <v>2869</v>
+      </c>
     </row>
     <row r="675" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A675" s="1" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>1730</v>
-      </c>
-      <c r="C675" s="2"/>
+        <v>1727</v>
+      </c>
+      <c r="C675" s="2" t="s">
+        <v>2870</v>
+      </c>
     </row>
     <row r="676" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A676" s="1" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>1729</v>
-      </c>
-      <c r="C676" s="2"/>
+        <v>1726</v>
+      </c>
+      <c r="C676" s="2" t="s">
+        <v>2871</v>
+      </c>
     </row>
     <row r="677" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A677" s="1" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>1728</v>
-      </c>
-      <c r="C677" s="2"/>
+        <v>1725</v>
+      </c>
+      <c r="C677" s="2" t="s">
+        <v>2872</v>
+      </c>
     </row>
     <row r="678" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A678" s="1" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>1727</v>
-      </c>
-      <c r="C678" s="2"/>
+        <v>1724</v>
+      </c>
+      <c r="C678" s="2" t="s">
+        <v>2873</v>
+      </c>
     </row>
     <row r="679" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A679" s="1" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>1726</v>
-      </c>
-      <c r="C679" s="2"/>
+        <v>1723</v>
+      </c>
+      <c r="C679" s="2" t="s">
+        <v>2874</v>
+      </c>
     </row>
     <row r="680" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A680" s="1" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>1725</v>
-      </c>
-      <c r="C680" s="2"/>
+        <v>1722</v>
+      </c>
+      <c r="C680" s="2" t="s">
+        <v>2875</v>
+      </c>
     </row>
     <row r="681" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A681" s="1" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>1724</v>
-      </c>
-      <c r="C681" s="2"/>
+        <v>1721</v>
+      </c>
+      <c r="C681" s="2" t="s">
+        <v>2876</v>
+      </c>
     </row>
     <row r="682" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A682" s="1" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>1723</v>
-      </c>
-      <c r="C682" s="2"/>
+        <v>1720</v>
+      </c>
+      <c r="C682" s="2" t="s">
+        <v>2877</v>
+      </c>
     </row>
     <row r="683" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A683" s="1" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>1722</v>
-      </c>
-      <c r="C683" s="2"/>
+        <v>2879</v>
+      </c>
+      <c r="C683" s="2" t="s">
+        <v>2878</v>
+      </c>
     </row>
     <row r="684" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A684" s="1" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>1721</v>
-      </c>
-      <c r="C684" s="2"/>
+        <v>1719</v>
+      </c>
+      <c r="C684" s="2" t="s">
+        <v>2880</v>
+      </c>
     </row>
     <row r="685" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A685" s="1" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="C685" s="2"/>
     </row>
     <row r="686" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A686" s="1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B686" s="2"/>
-      <c r="C686" s="2"/>
+        <v>1148</v>
+      </c>
+      <c r="B686" s="2" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C686" s="2" t="s">
+        <v>2881</v>
+      </c>
     </row>
     <row r="687" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A687" s="1" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>1719</v>
-      </c>
-      <c r="C687" s="2"/>
+        <v>1716</v>
+      </c>
+      <c r="C687" s="2" t="s">
+        <v>2882</v>
+      </c>
     </row>
     <row r="688" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A688" s="1" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>1718</v>
-      </c>
-      <c r="C688" s="2"/>
+        <v>1715</v>
+      </c>
+      <c r="C688" s="2" t="s">
+        <v>2883</v>
+      </c>
     </row>
     <row r="689" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A689" s="1" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>1717</v>
-      </c>
-      <c r="C689" s="2"/>
+        <v>1714</v>
+      </c>
+      <c r="C689" s="2" t="s">
+        <v>2884</v>
+      </c>
     </row>
     <row r="690" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A690" s="1" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>1716</v>
-      </c>
-      <c r="C690" s="2"/>
+        <v>1713</v>
+      </c>
+      <c r="C690" s="2" t="s">
+        <v>2885</v>
+      </c>
     </row>
     <row r="691" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A691" s="1" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>1715</v>
-      </c>
-      <c r="C691" s="2"/>
+        <v>1712</v>
+      </c>
+      <c r="C691" s="2" t="s">
+        <v>2886</v>
+      </c>
     </row>
     <row r="692" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A692" s="1" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>1714</v>
-      </c>
-      <c r="C692" s="2"/>
+        <v>1711</v>
+      </c>
+      <c r="C692" s="2" t="s">
+        <v>2887</v>
+      </c>
     </row>
     <row r="693" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A693" s="1" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>1713</v>
-      </c>
-      <c r="C693" s="2"/>
+        <v>1710</v>
+      </c>
+      <c r="C693" s="2" t="s">
+        <v>2888</v>
+      </c>
     </row>
     <row r="694" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A694" s="1" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>1712</v>
-      </c>
-      <c r="C694" s="2"/>
+        <v>1709</v>
+      </c>
+      <c r="C694" s="2" t="s">
+        <v>2889</v>
+      </c>
     </row>
     <row r="695" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A695" s="1" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>1711</v>
-      </c>
-      <c r="C695" s="2"/>
+        <v>2891</v>
+      </c>
+      <c r="C695" s="2" t="s">
+        <v>2890</v>
+      </c>
     </row>
     <row r="696" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A696" s="1" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>1710</v>
-      </c>
-      <c r="C696" s="2"/>
+        <v>1708</v>
+      </c>
+      <c r="C696" s="2" t="s">
+        <v>2892</v>
+      </c>
     </row>
     <row r="697" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A697" s="1" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>1709</v>
-      </c>
-      <c r="C697" s="2"/>
+        <v>1707</v>
+      </c>
+      <c r="C697" s="2" t="s">
+        <v>2893</v>
+      </c>
     </row>
     <row r="698" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A698" s="1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B698" s="2"/>
-      <c r="C698" s="2"/>
+        <v>1160</v>
+      </c>
+      <c r="B698" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C698" s="2" t="s">
+        <v>2894</v>
+      </c>
     </row>
     <row r="699" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A699" s="1" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>1708</v>
-      </c>
-      <c r="C699" s="2"/>
+        <v>1705</v>
+      </c>
+      <c r="C699" s="2" t="s">
+        <v>2895</v>
+      </c>
     </row>
     <row r="700" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A700" s="1" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>1707</v>
-      </c>
-      <c r="C700" s="2"/>
+        <v>1704</v>
+      </c>
+      <c r="C700" s="2" t="s">
+        <v>2739</v>
+      </c>
     </row>
     <row r="701" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A701" s="1" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>1706</v>
-      </c>
-      <c r="C701" s="2"/>
+        <v>1703</v>
+      </c>
+      <c r="C701" s="2" t="s">
+        <v>2896</v>
+      </c>
     </row>
     <row r="702" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A702" s="1" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>1705</v>
-      </c>
-      <c r="C702" s="2"/>
+        <v>1702</v>
+      </c>
+      <c r="C702" s="2" t="s">
+        <v>2897</v>
+      </c>
     </row>
     <row r="703" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A703" s="1" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>1704</v>
-      </c>
-      <c r="C703" s="2"/>
+        <v>1701</v>
+      </c>
+      <c r="C703" s="2" t="s">
+        <v>2898</v>
+      </c>
     </row>
     <row r="704" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A704" s="1" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>1703</v>
-      </c>
-      <c r="C704" s="2"/>
+        <v>1700</v>
+      </c>
+      <c r="C704" s="2" t="s">
+        <v>2899</v>
+      </c>
     </row>
     <row r="705" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A705" s="1" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>1702</v>
-      </c>
-      <c r="C705" s="2"/>
+        <v>1699</v>
+      </c>
+      <c r="C705" s="2" t="s">
+        <v>2900</v>
+      </c>
     </row>
     <row r="706" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A706" s="1" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>1701</v>
-      </c>
-      <c r="C706" s="2"/>
+        <v>1698</v>
+      </c>
+      <c r="C706" s="2" t="s">
+        <v>2901</v>
+      </c>
     </row>
     <row r="707" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A707" s="1" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>1700</v>
-      </c>
-      <c r="C707" s="2"/>
+        <v>1697</v>
+      </c>
+      <c r="C707" s="2" t="s">
+        <v>2902</v>
+      </c>
     </row>
     <row r="708" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A708" s="1" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C708" s="2"/>
+        <v>2904</v>
+      </c>
+      <c r="C708" s="2" t="s">
+        <v>2903</v>
+      </c>
     </row>
     <row r="709" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A709" s="1" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>1698</v>
-      </c>
-      <c r="C709" s="2"/>
+        <v>1696</v>
+      </c>
+      <c r="C709" s="2" t="s">
+        <v>2905</v>
+      </c>
     </row>
     <row r="710" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A710" s="1" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>1697</v>
-      </c>
-      <c r="C710" s="2"/>
+        <v>1695</v>
+      </c>
+      <c r="C710" s="2" t="s">
+        <v>2906</v>
+      </c>
     </row>
     <row r="711" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A711" s="1" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B711" s="2"/>
-      <c r="C711" s="2"/>
+        <v>1173</v>
+      </c>
+      <c r="B711" s="2" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C711" s="2" t="s">
+        <v>2907</v>
+      </c>
     </row>
     <row r="712" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A712" s="1" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>1696</v>
-      </c>
-      <c r="C712" s="2"/>
+        <v>1693</v>
+      </c>
+      <c r="C712" s="2" t="s">
+        <v>2908</v>
+      </c>
     </row>
     <row r="713" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A713" s="1" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C713" s="2"/>
+        <v>1692</v>
+      </c>
+      <c r="C713" s="2" t="s">
+        <v>2909</v>
+      </c>
     </row>
     <row r="714" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A714" s="1" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>1694</v>
+        <v>1500</v>
       </c>
       <c r="C714" s="2"/>
     </row>
     <row r="715" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A715" s="1" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>1693</v>
-      </c>
-      <c r="C715" s="2"/>
+        <v>1691</v>
+      </c>
+      <c r="C715" s="2" t="s">
+        <v>2910</v>
+      </c>
     </row>
     <row r="716" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A716" s="1" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>1692</v>
-      </c>
-      <c r="C716" s="2"/>
+        <v>1690</v>
+      </c>
+      <c r="C716" s="2" t="s">
+        <v>2566</v>
+      </c>
     </row>
     <row r="717" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A717" s="1" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C717" s="2"/>
+        <v>1689</v>
+      </c>
+      <c r="C717" s="2" t="s">
+        <v>2911</v>
+      </c>
     </row>
     <row r="718" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A718" s="1" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>1691</v>
-      </c>
-      <c r="C718" s="2"/>
+        <v>1688</v>
+      </c>
+      <c r="C718" s="2" t="s">
+        <v>2912</v>
+      </c>
     </row>
     <row r="719" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A719" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B719" s="2" t="s">
-        <v>1690</v>
-      </c>
+        <v>1182</v>
+      </c>
+      <c r="B719" s="2"/>
       <c r="C719" s="2"/>
     </row>
     <row r="720" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A720" s="1" t="s">
-        <v>1179</v>
+        <v>1183</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C720" s="2"/>
+        <v>1687</v>
+      </c>
+      <c r="C720" s="2" t="s">
+        <v>2913</v>
+      </c>
     </row>
     <row r="721" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A721" s="1" t="s">
-        <v>1180</v>
+        <v>1184</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>1688</v>
-      </c>
-      <c r="C721" s="2"/>
+        <v>1686</v>
+      </c>
+      <c r="C721" s="2" t="s">
+        <v>2914</v>
+      </c>
     </row>
     <row r="722" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A722" s="1" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="B722" s="2"/>
-      <c r="C722" s="2"/>
+      <c r="C722" s="2" t="s">
+        <v>2915</v>
+      </c>
     </row>
     <row r="723" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A723" s="1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B723" s="2"/>
-      <c r="C723" s="2"/>
+        <v>1186</v>
+      </c>
+      <c r="B723" s="2" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C723" s="2" t="s">
+        <v>2916</v>
+      </c>
     </row>
     <row r="724" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A724" s="1" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>1687</v>
-      </c>
-      <c r="C724" s="2"/>
+        <v>2118</v>
+      </c>
+      <c r="C724" s="2" t="s">
+        <v>2434</v>
+      </c>
     </row>
     <row r="725" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A725" s="1" t="s">
-        <v>1184</v>
+        <v>1188</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C725" s="2"/>
+        <v>2918</v>
+      </c>
+      <c r="C725" s="2" t="s">
+        <v>2917</v>
+      </c>
     </row>
     <row r="726" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A726" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B726" s="2"/>
-      <c r="C726" s="2"/>
+        <v>1189</v>
+      </c>
+      <c r="B726" s="2" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C726" s="2" t="s">
+        <v>2919</v>
+      </c>
     </row>
     <row r="727" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A727" s="1" t="s">
-        <v>1186</v>
+        <v>1190</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>1685</v>
-      </c>
-      <c r="C727" s="2"/>
+        <v>1683</v>
+      </c>
+      <c r="C727" s="2" t="s">
+        <v>2920</v>
+      </c>
     </row>
     <row r="728" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A728" s="1" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B728" s="2"/>
-      <c r="C728" s="2"/>
+        <v>1191</v>
+      </c>
+      <c r="B728" s="2" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C728" s="2" t="s">
+        <v>2921</v>
+      </c>
     </row>
     <row r="729" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A729" s="1" t="s">
-        <v>1188</v>
+        <v>1192</v>
       </c>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
     </row>
     <row r="730" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A730" s="1" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>1684</v>
-      </c>
-      <c r="C730" s="2"/>
+        <v>1681</v>
+      </c>
+      <c r="C730" s="2" t="s">
+        <v>2922</v>
+      </c>
     </row>
     <row r="731" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A731" s="1" t="s">
-        <v>1190</v>
+        <v>1194</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>1683</v>
-      </c>
-      <c r="C731" s="2"/>
+        <v>1680</v>
+      </c>
+      <c r="C731" s="2" t="s">
+        <v>2923</v>
+      </c>
     </row>
     <row r="732" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A732" s="1" t="s">
-        <v>1191</v>
+        <v>1196</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>1682</v>
-      </c>
-      <c r="C732" s="2"/>
+        <v>1679</v>
+      </c>
+      <c r="C732" s="2" t="s">
+        <v>2924</v>
+      </c>
     </row>
     <row r="733" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A733" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B733" s="2"/>
-      <c r="C733" s="2"/>
+        <v>1197</v>
+      </c>
+      <c r="B733" s="2" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C733" s="2" t="s">
+        <v>2925</v>
+      </c>
     </row>
     <row r="734" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A734" s="1" t="s">
-        <v>1193</v>
+        <v>1198</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>1681</v>
-      </c>
-      <c r="C734" s="2"/>
+        <v>1677</v>
+      </c>
+      <c r="C734" s="2" t="s">
+        <v>2926</v>
+      </c>
     </row>
     <row r="735" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A735" s="1" t="s">
-        <v>1194</v>
+        <v>1199</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>1680</v>
-      </c>
-      <c r="C735" s="2"/>
+        <v>1676</v>
+      </c>
+      <c r="C735" s="2" t="s">
+        <v>2927</v>
+      </c>
     </row>
     <row r="736" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A736" s="1" t="s">
-        <v>1195</v>
+        <v>1200</v>
       </c>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
     </row>
     <row r="737" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A737" s="1" t="s">
-        <v>1196</v>
+        <v>1201</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="C737" s="2"/>
     </row>
     <row r="738" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A738" s="1" t="s">
-        <v>1197</v>
+        <v>1202</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>1678</v>
-      </c>
-      <c r="C738" s="2"/>
+        <v>2929</v>
+      </c>
+      <c r="C738" s="2" t="s">
+        <v>2928</v>
+      </c>
     </row>
     <row r="739" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A739" s="1" t="s">
-        <v>1198</v>
+        <v>1203</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C739" s="2"/>
+        <v>1674</v>
+      </c>
+      <c r="C739" s="2" t="s">
+        <v>2930</v>
+      </c>
     </row>
     <row r="740" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A740" s="1" t="s">
-        <v>1199</v>
+        <v>1204</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>1676</v>
-      </c>
-      <c r="C740" s="2"/>
+        <v>2932</v>
+      </c>
+      <c r="C740" s="2" t="s">
+        <v>2931</v>
+      </c>
     </row>
     <row r="741" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A741" s="1" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B741" s="2"/>
-      <c r="C741" s="2"/>
+        <v>1205</v>
+      </c>
+      <c r="B741" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C741" s="2" t="s">
+        <v>2933</v>
+      </c>
     </row>
     <row r="742" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A742" s="1" t="s">
-        <v>1201</v>
+        <v>1207</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>1675</v>
-      </c>
-      <c r="C742" s="2"/>
+        <v>1672</v>
+      </c>
+      <c r="C742" s="2" t="s">
+        <v>2934</v>
+      </c>
     </row>
     <row r="743" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A743" s="1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B743" s="2"/>
-      <c r="C743" s="2"/>
+        <v>1208</v>
+      </c>
+      <c r="B743" s="2" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C743" s="2" t="s">
+        <v>2935</v>
+      </c>
     </row>
     <row r="744" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A744" s="1" t="s">
-        <v>1203</v>
+        <v>1209</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>1674</v>
-      </c>
-      <c r="C744" s="2"/>
+        <v>1670</v>
+      </c>
+      <c r="C744" s="2" t="s">
+        <v>2341</v>
+      </c>
     </row>
     <row r="745" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A745" s="1" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B745" s="2"/>
-      <c r="C745" s="2"/>
+        <v>1210</v>
+      </c>
+      <c r="B745" s="2" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C745" s="2" t="s">
+        <v>2936</v>
+      </c>
     </row>
     <row r="746" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A746" s="1" t="s">
-        <v>1205</v>
+        <v>1211</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C746" s="2"/>
+        <v>1668</v>
+      </c>
+      <c r="C746" s="2" t="s">
+        <v>2937</v>
+      </c>
     </row>
     <row r="747" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A747" s="1" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B747" s="2"/>
-      <c r="C747" s="2"/>
+        <v>1212</v>
+      </c>
+      <c r="B747" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C747" s="2" t="s">
+        <v>2938</v>
+      </c>
     </row>
     <row r="748" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A748" s="1" t="s">
-        <v>1207</v>
+        <v>1213</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>1672</v>
-      </c>
-      <c r="C748" s="2"/>
+        <v>1666</v>
+      </c>
+      <c r="C748" s="2" t="s">
+        <v>2939</v>
+      </c>
     </row>
     <row r="749" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A749" s="1" t="s">
-        <v>1208</v>
+        <v>1214</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>1671</v>
-      </c>
-      <c r="C749" s="2"/>
+        <v>1665</v>
+      </c>
+      <c r="C749" s="2" t="s">
+        <v>2940</v>
+      </c>
     </row>
     <row r="750" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A750" s="1" t="s">
-        <v>1209</v>
+        <v>1215</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C750" s="2"/>
+        <v>1664</v>
+      </c>
+      <c r="C750" s="2" t="s">
+        <v>2941</v>
+      </c>
     </row>
     <row r="751" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A751" s="1" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B751" s="2" t="s">
-        <v>1669</v>
-      </c>
-      <c r="C751" s="2"/>
+        <v>1216</v>
+      </c>
+      <c r="B751" s="2"/>
+      <c r="C751" s="2" t="s">
+        <v>2942</v>
+      </c>
     </row>
     <row r="752" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A752" s="1" t="s">
-        <v>1211</v>
+        <v>1217</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>1668</v>
-      </c>
-      <c r="C752" s="2"/>
+        <v>1663</v>
+      </c>
+      <c r="C752" s="2" t="s">
+        <v>2943</v>
+      </c>
     </row>
     <row r="753" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A753" s="1" t="s">
-        <v>1212</v>
+        <v>1218</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C753" s="2"/>
+        <v>1662</v>
+      </c>
+      <c r="C753" s="2" t="s">
+        <v>2944</v>
+      </c>
     </row>
     <row r="754" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A754" s="1" t="s">
-        <v>1213</v>
+        <v>1219</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>1666</v>
-      </c>
-      <c r="C754" s="2"/>
+        <v>1661</v>
+      </c>
+      <c r="C754" s="2" t="s">
+        <v>2945</v>
+      </c>
     </row>
     <row r="755" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A755" s="1" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>1665</v>
-      </c>
-      <c r="C755" s="2"/>
+        <v>1660</v>
+      </c>
+      <c r="C755" s="2" t="s">
+        <v>2946</v>
+      </c>
     </row>
     <row r="756" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A756" s="1" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>1664</v>
-      </c>
-      <c r="C756" s="2"/>
+        <v>1659</v>
+      </c>
+      <c r="C756" s="2" t="s">
+        <v>2947</v>
+      </c>
     </row>
     <row r="757" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A757" s="1" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B757" s="2"/>
-      <c r="C757" s="2"/>
+        <v>1222</v>
+      </c>
+      <c r="B757" s="2" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C757" s="2" t="s">
+        <v>2948</v>
+      </c>
     </row>
     <row r="758" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A758" s="1" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>1663</v>
-      </c>
-      <c r="C758" s="2"/>
+        <v>1657</v>
+      </c>
+      <c r="C758" s="2" t="s">
+        <v>2949</v>
+      </c>
     </row>
     <row r="759" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A759" s="1" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>1662</v>
-      </c>
-      <c r="C759" s="2"/>
+        <v>1656</v>
+      </c>
+      <c r="C759" s="2" t="s">
+        <v>2950</v>
+      </c>
     </row>
     <row r="760" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A760" s="1" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>1661</v>
-      </c>
-      <c r="C760" s="2"/>
+        <v>1655</v>
+      </c>
+      <c r="C760" s="2" t="s">
+        <v>2951</v>
+      </c>
     </row>
     <row r="761" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A761" s="1" t="s">
-        <v>1220</v>
+        <v>1226</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>1660</v>
-      </c>
-      <c r="C761" s="2"/>
+        <v>1654</v>
+      </c>
+      <c r="C761" s="2" t="s">
+        <v>2952</v>
+      </c>
     </row>
     <row r="762" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A762" s="1" t="s">
-        <v>1221</v>
+        <v>1227</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C762" s="2"/>
+        <v>2954</v>
+      </c>
+      <c r="C762" s="2" t="s">
+        <v>2953</v>
+      </c>
     </row>
     <row r="763" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A763" s="1" t="s">
-        <v>1222</v>
+        <v>1228</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>1658</v>
-      </c>
-      <c r="C763" s="2"/>
+        <v>1653</v>
+      </c>
+      <c r="C763" s="2" t="s">
+        <v>2955</v>
+      </c>
     </row>
     <row r="764" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A764" s="1" t="s">
-        <v>1223</v>
+        <v>1229</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>1657</v>
-      </c>
-      <c r="C764" s="2"/>
+        <v>2957</v>
+      </c>
+      <c r="C764" s="2" t="s">
+        <v>2956</v>
+      </c>
     </row>
     <row r="765" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A765" s="1" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>1656</v>
-      </c>
-      <c r="C765" s="2"/>
+        <v>1652</v>
+      </c>
+      <c r="C765" s="2" t="s">
+        <v>2958</v>
+      </c>
     </row>
     <row r="766" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A766" s="1" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>1655</v>
-      </c>
-      <c r="C766" s="2"/>
+        <v>1651</v>
+      </c>
+      <c r="C766" s="2" t="s">
+        <v>2959</v>
+      </c>
     </row>
     <row r="767" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A767" s="1" t="s">
-        <v>1226</v>
+        <v>1232</v>
       </c>
       <c r="B767" s="2" t="s">
-        <v>1654</v>
-      </c>
-      <c r="C767" s="2"/>
+        <v>1650</v>
+      </c>
+      <c r="C767" s="2" t="s">
+        <v>2960</v>
+      </c>
     </row>
     <row r="768" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A768" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B768" s="2"/>
-      <c r="C768" s="2"/>
+        <v>1233</v>
+      </c>
+      <c r="B768" s="2" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C768" s="2" t="s">
+        <v>2961</v>
+      </c>
     </row>
     <row r="769" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A769" s="1" t="s">
-        <v>1228</v>
+        <v>1234</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>1653</v>
-      </c>
-      <c r="C769" s="2"/>
+        <v>1648</v>
+      </c>
+      <c r="C769" s="2" t="s">
+        <v>2962</v>
+      </c>
     </row>
     <row r="770" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A770" s="1" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B770" s="2"/>
-      <c r="C770" s="2"/>
+        <v>1235</v>
+      </c>
+      <c r="B770" s="2" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C770" s="2" t="s">
+        <v>2963</v>
+      </c>
     </row>
     <row r="771" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A771" s="1" t="s">
-        <v>1230</v>
+        <v>1236</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>1652</v>
-      </c>
-      <c r="C771" s="2"/>
+        <v>1646</v>
+      </c>
+      <c r="C771" s="2" t="s">
+        <v>2964</v>
+      </c>
     </row>
     <row r="772" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A772" s="1" t="s">
-        <v>1231</v>
+        <v>1237</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C772" s="2"/>
+        <v>1645</v>
+      </c>
+      <c r="C772" s="2" t="s">
+        <v>2965</v>
+      </c>
     </row>
     <row r="773" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A773" s="1" t="s">
-        <v>1232</v>
+        <v>1238</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>1650</v>
-      </c>
-      <c r="C773" s="2"/>
+        <v>1644</v>
+      </c>
+      <c r="C773" s="2" t="s">
+        <v>2966</v>
+      </c>
     </row>
     <row r="774" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A774" s="1" t="s">
-        <v>1233</v>
+        <v>1239</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>1649</v>
-      </c>
-      <c r="C774" s="2"/>
+        <v>1643</v>
+      </c>
+      <c r="C774" s="2" t="s">
+        <v>2967</v>
+      </c>
     </row>
     <row r="775" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A775" s="1" t="s">
-        <v>1234</v>
+        <v>1240</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>1648</v>
-      </c>
-      <c r="C775" s="2"/>
+        <v>1642</v>
+      </c>
+      <c r="C775" s="2" t="s">
+        <v>2968</v>
+      </c>
     </row>
     <row r="776" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A776" s="1" t="s">
-        <v>1235</v>
+        <v>1241</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>1647</v>
-      </c>
-      <c r="C776" s="2"/>
+        <v>1641</v>
+      </c>
+      <c r="C776" s="2" t="s">
+        <v>2969</v>
+      </c>
     </row>
     <row r="777" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A777" s="1" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B777" s="2" t="s">
-        <v>1646</v>
-      </c>
-      <c r="C777" s="2"/>
+        <v>1242</v>
+      </c>
+      <c r="B777" s="2"/>
+      <c r="C777" s="2" t="s">
+        <v>2970</v>
+      </c>
     </row>
     <row r="778" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A778" s="1" t="s">
-        <v>1237</v>
+        <v>1243</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C778" s="2"/>
+        <v>1640</v>
+      </c>
+      <c r="C778" s="2" t="s">
+        <v>2971</v>
+      </c>
     </row>
     <row r="779" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A779" s="1" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B779" s="2" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C779" s="2"/>
+        <v>1244</v>
+      </c>
+      <c r="B779" s="2"/>
+      <c r="C779" s="2" t="s">
+        <v>2972</v>
+      </c>
     </row>
     <row r="780" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A780" s="1" t="s">
-        <v>1239</v>
+        <v>1245</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>1643</v>
-      </c>
-      <c r="C780" s="2"/>
+        <v>1639</v>
+      </c>
+      <c r="C780" s="2" t="s">
+        <v>2973</v>
+      </c>
     </row>
     <row r="781" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A781" s="1" t="s">
-        <v>1240</v>
+        <v>1246</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>1642</v>
-      </c>
-      <c r="C781" s="2"/>
+        <v>1638</v>
+      </c>
+      <c r="C781" s="2" t="s">
+        <v>2974</v>
+      </c>
     </row>
     <row r="782" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A782" s="1" t="s">
-        <v>1241</v>
+        <v>1247</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>1641</v>
-      </c>
-      <c r="C782" s="2"/>
+        <v>1637</v>
+      </c>
+      <c r="C782" s="2" t="s">
+        <v>2975</v>
+      </c>
     </row>
     <row r="783" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A783" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B783" s="2"/>
-      <c r="C783" s="2"/>
+        <v>1248</v>
+      </c>
+      <c r="B783" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C783" s="2" t="s">
+        <v>2976</v>
+      </c>
     </row>
     <row r="784" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A784" s="1" t="s">
-        <v>1243</v>
+        <v>1249</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>1640</v>
-      </c>
-      <c r="C784" s="2"/>
+        <v>1635</v>
+      </c>
+      <c r="C784" s="2" t="s">
+        <v>2977</v>
+      </c>
     </row>
     <row r="785" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A785" s="1" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B785" s="2"/>
-      <c r="C785" s="2"/>
+        <v>1250</v>
+      </c>
+      <c r="B785" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C785" s="2" t="s">
+        <v>2978</v>
+      </c>
     </row>
     <row r="786" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A786" s="1" t="s">
-        <v>1245</v>
+        <v>1251</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>1639</v>
-      </c>
-      <c r="C786" s="2"/>
+        <v>1623</v>
+      </c>
+      <c r="C786" s="2" t="s">
+        <v>2979</v>
+      </c>
     </row>
     <row r="787" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A787" s="1" t="s">
-        <v>1246</v>
+        <v>1252</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>1638</v>
-      </c>
-      <c r="C787" s="2"/>
+        <v>1633</v>
+      </c>
+      <c r="C787" s="2" t="s">
+        <v>2980</v>
+      </c>
     </row>
     <row r="788" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A788" s="1" t="s">
-        <v>1247</v>
+        <v>1253</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>1637</v>
-      </c>
-      <c r="C788" s="2"/>
+        <v>1632</v>
+      </c>
+      <c r="C788" s="2" t="s">
+        <v>2981</v>
+      </c>
     </row>
     <row r="789" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A789" s="1" t="s">
-        <v>1248</v>
+        <v>1254</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>1636</v>
-      </c>
-      <c r="C789" s="2"/>
+        <v>1631</v>
+      </c>
+      <c r="C789" s="2" t="s">
+        <v>2982</v>
+      </c>
     </row>
     <row r="790" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A790" s="1" t="s">
-        <v>1249</v>
+        <v>1255</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>1635</v>
-      </c>
-      <c r="C790" s="2"/>
+        <v>1630</v>
+      </c>
+      <c r="C790" s="2" t="s">
+        <v>2983</v>
+      </c>
     </row>
     <row r="791" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A791" s="1" t="s">
-        <v>1250</v>
+        <v>1256</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>1634</v>
-      </c>
-      <c r="C791" s="2"/>
+        <v>1629</v>
+      </c>
+      <c r="C791" s="2" t="s">
+        <v>2984</v>
+      </c>
     </row>
     <row r="792" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A792" s="1" t="s">
-        <v>1251</v>
+        <v>1257</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>1623</v>
-      </c>
-      <c r="C792" s="2"/>
+        <v>1628</v>
+      </c>
+      <c r="C792" s="2" t="s">
+        <v>2985</v>
+      </c>
     </row>
     <row r="793" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A793" s="1" t="s">
-        <v>1252</v>
+        <v>1258</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>1633</v>
-      </c>
-      <c r="C793" s="2"/>
+        <v>1627</v>
+      </c>
+      <c r="C793" s="2" t="s">
+        <v>2986</v>
+      </c>
     </row>
     <row r="794" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A794" s="1" t="s">
-        <v>1253</v>
+        <v>1259</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>1632</v>
-      </c>
-      <c r="C794" s="2"/>
+        <v>1626</v>
+      </c>
+      <c r="C794" s="2" t="s">
+        <v>2987</v>
+      </c>
     </row>
     <row r="795" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A795" s="1" t="s">
-        <v>1254</v>
+        <v>1260</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>1631</v>
-      </c>
-      <c r="C795" s="2"/>
+        <v>1625</v>
+      </c>
+      <c r="C795" s="2" t="s">
+        <v>2988</v>
+      </c>
     </row>
     <row r="796" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A796" s="1" t="s">
-        <v>1255</v>
+        <v>1261</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>1630</v>
-      </c>
-      <c r="C796" s="2"/>
+        <v>2991</v>
+      </c>
+      <c r="C796" s="2" t="s">
+        <v>2989</v>
+      </c>
     </row>
     <row r="797" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A797" s="1" t="s">
-        <v>1256</v>
+        <v>1262</v>
       </c>
       <c r="B797" s="2" t="s">
-        <v>1629</v>
-      </c>
-      <c r="C797" s="2"/>
+        <v>1624</v>
+      </c>
+      <c r="C797" s="2" t="s">
+        <v>2990</v>
+      </c>
     </row>
     <row r="798" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A798" s="1" t="s">
-        <v>1257</v>
+        <v>1263</v>
       </c>
       <c r="B798" s="2" t="s">
-        <v>1628</v>
-      </c>
-      <c r="C798" s="2"/>
+        <v>1623</v>
+      </c>
+      <c r="C798" s="2" t="s">
+        <v>2992</v>
+      </c>
     </row>
     <row r="799" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A799" s="1" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B799" s="2" t="s">
-        <v>1627</v>
-      </c>
-      <c r="C799" s="2"/>
+        <v>1264</v>
+      </c>
+      <c r="B799" s="2"/>
+      <c r="C799" s="2" t="s">
+        <v>2993</v>
+      </c>
     </row>
     <row r="800" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A800" s="1" t="s">
-        <v>1259</v>
+        <v>1265</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>1626</v>
-      </c>
-      <c r="C800" s="2"/>
+        <v>1622</v>
+      </c>
+      <c r="C800" s="2" t="s">
+        <v>2994</v>
+      </c>
     </row>
     <row r="801" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A801" s="1" t="s">
-        <v>1260</v>
+        <v>1266</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>1625</v>
-      </c>
-      <c r="C801" s="2"/>
+        <v>1621</v>
+      </c>
+      <c r="C801" s="2" t="s">
+        <v>2995</v>
+      </c>
     </row>
     <row r="802" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A802" s="1" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B802" s="2"/>
-      <c r="C802" s="2"/>
+        <v>1267</v>
+      </c>
+      <c r="B802" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C802" s="2" t="s">
+        <v>2996</v>
+      </c>
     </row>
     <row r="803" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A803" s="1" t="s">
-        <v>1262</v>
+        <v>1268</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>1624</v>
-      </c>
-      <c r="C803" s="2"/>
+        <v>1619</v>
+      </c>
+      <c r="C803" s="2" t="s">
+        <v>2997</v>
+      </c>
     </row>
     <row r="804" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A804" s="1" t="s">
-        <v>1263</v>
+        <v>1269</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>1623</v>
-      </c>
-      <c r="C804" s="2"/>
+        <v>1618</v>
+      </c>
+      <c r="C804" s="2" t="s">
+        <v>2998</v>
+      </c>
     </row>
     <row r="805" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A805" s="1" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B805" s="2"/>
-      <c r="C805" s="2"/>
+        <v>1271</v>
+      </c>
+      <c r="B805" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C805" s="2" t="s">
+        <v>2999</v>
+      </c>
     </row>
     <row r="806" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A806" s="1" t="s">
-        <v>1265</v>
+        <v>1272</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>1622</v>
-      </c>
-      <c r="C806" s="2"/>
+        <v>1616</v>
+      </c>
+      <c r="C806" s="2" t="s">
+        <v>3000</v>
+      </c>
     </row>
     <row r="807" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A807" s="1" t="s">
-        <v>1266</v>
+        <v>1274</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>1621</v>
-      </c>
-      <c r="C807" s="2"/>
+        <v>1615</v>
+      </c>
+      <c r="C807" s="2" t="s">
+        <v>3001</v>
+      </c>
     </row>
     <row r="808" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A808" s="1" t="s">
-        <v>1267</v>
+        <v>1275</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C808" s="2"/>
+        <v>1614</v>
+      </c>
+      <c r="C808" s="2" t="s">
+        <v>2257</v>
+      </c>
     </row>
     <row r="809" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A809" s="1" t="s">
-        <v>1268</v>
+        <v>1276</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C809" s="2"/>
+        <v>1613</v>
+      </c>
+      <c r="C809" s="2" t="s">
+        <v>3002</v>
+      </c>
     </row>
     <row r="810" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A810" s="1" t="s">
-        <v>1269</v>
+        <v>1277</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>1618</v>
-      </c>
-      <c r="C810" s="2"/>
+        <v>1612</v>
+      </c>
+      <c r="C810" s="2" t="s">
+        <v>3003</v>
+      </c>
     </row>
     <row r="811" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A811" s="1" t="s">
-        <v>1270</v>
+        <v>1278</v>
       </c>
       <c r="B811" s="2"/>
-      <c r="C811" s="2"/>
+      <c r="C811" s="2" t="s">
+        <v>3004</v>
+      </c>
     </row>
     <row r="812" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A812" s="1" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B812" s="2" t="s">
-        <v>1617</v>
-      </c>
-      <c r="C812" s="2"/>
+        <v>1279</v>
+      </c>
+      <c r="B812" s="2"/>
+      <c r="C812" s="2" t="s">
+        <v>3005</v>
+      </c>
     </row>
     <row r="813" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A813" s="1" t="s">
-        <v>1272</v>
+        <v>1280</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>1616</v>
-      </c>
-      <c r="C813" s="2"/>
+        <v>1611</v>
+      </c>
+      <c r="C813" s="2" t="s">
+        <v>3006</v>
+      </c>
     </row>
     <row r="814" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A814" s="1" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B814" s="2"/>
-      <c r="C814" s="2"/>
+        <v>1281</v>
+      </c>
+      <c r="B814" s="2" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C814" s="2" t="s">
+        <v>3007</v>
+      </c>
     </row>
     <row r="815" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A815" s="1" t="s">
-        <v>1274</v>
+        <v>1282</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C815" s="2"/>
+        <v>1609</v>
+      </c>
+      <c r="C815" s="2" t="s">
+        <v>3008</v>
+      </c>
     </row>
     <row r="816" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A816" s="1" t="s">
-        <v>1275</v>
+        <v>1283</v>
       </c>
       <c r="B816" s="2" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C816" s="2"/>
+        <v>1608</v>
+      </c>
+      <c r="C816" s="2" t="s">
+        <v>3009</v>
+      </c>
     </row>
     <row r="817" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A817" s="1" t="s">
-        <v>1276</v>
+        <v>1284</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>1613</v>
-      </c>
-      <c r="C817" s="2"/>
+        <v>1607</v>
+      </c>
+      <c r="C817" s="2" t="s">
+        <v>3010</v>
+      </c>
     </row>
     <row r="818" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A818" s="1" t="s">
-        <v>1277</v>
+        <v>1285</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>1612</v>
-      </c>
-      <c r="C818" s="2"/>
+        <v>1606</v>
+      </c>
+      <c r="C818" s="2" t="s">
+        <v>3011</v>
+      </c>
     </row>
     <row r="819" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A819" s="1" t="s">
-        <v>1278</v>
-      </c>
-      <c r="B819" s="2"/>
-      <c r="C819" s="2"/>
+        <v>1286</v>
+      </c>
+      <c r="B819" s="2" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C819" s="2" t="s">
+        <v>3012</v>
+      </c>
     </row>
     <row r="820" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A820" s="1" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B820" s="2"/>
-      <c r="C820" s="2"/>
+        <v>1287</v>
+      </c>
+      <c r="B820" s="2" t="s">
+        <v>3014</v>
+      </c>
+      <c r="C820" s="2" t="s">
+        <v>3013</v>
+      </c>
     </row>
     <row r="821" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A821" s="1" t="s">
-        <v>1280</v>
+        <v>1288</v>
       </c>
       <c r="B821" s="2" t="s">
-        <v>1611</v>
-      </c>
-      <c r="C821" s="2"/>
+        <v>1603</v>
+      </c>
+      <c r="C821" s="2" t="s">
+        <v>3015</v>
+      </c>
     </row>
     <row r="822" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A822" s="1" t="s">
-        <v>1281</v>
+        <v>1289</v>
       </c>
       <c r="B822" s="2" t="s">
-        <v>1610</v>
-      </c>
-      <c r="C822" s="2"/>
+        <v>1602</v>
+      </c>
+      <c r="C822" s="2" t="s">
+        <v>3016</v>
+      </c>
     </row>
     <row r="823" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A823" s="1" t="s">
-        <v>1282</v>
-      </c>
-      <c r="B823" s="2" t="s">
-        <v>1609</v>
-      </c>
+        <v>1290</v>
+      </c>
+      <c r="B823" s="2"/>
       <c r="C823" s="2"/>
     </row>
     <row r="824" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A824" s="1" t="s">
-        <v>1283</v>
+        <v>1291</v>
       </c>
       <c r="B824" s="2" t="s">
-        <v>1608</v>
-      </c>
-      <c r="C824" s="2"/>
+        <v>1601</v>
+      </c>
+      <c r="C824" s="2" t="s">
+        <v>3017</v>
+      </c>
     </row>
     <row r="825" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A825" s="1" t="s">
-        <v>1284</v>
+        <v>1292</v>
       </c>
       <c r="B825" s="2" t="s">
-        <v>1607</v>
-      </c>
-      <c r="C825" s="2"/>
+        <v>1600</v>
+      </c>
+      <c r="C825" s="2" t="s">
+        <v>3018</v>
+      </c>
     </row>
     <row r="826" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A826" s="1" t="s">
-        <v>1285</v>
+        <v>1293</v>
       </c>
       <c r="B826" s="2" t="s">
-        <v>1606</v>
-      </c>
-      <c r="C826" s="2"/>
+        <v>1599</v>
+      </c>
+      <c r="C826" s="2" t="s">
+        <v>3019</v>
+      </c>
     </row>
     <row r="827" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A827" s="1" t="s">
-        <v>1286</v>
+        <v>1294</v>
       </c>
       <c r="B827" s="2" t="s">
-        <v>1605</v>
-      </c>
-      <c r="C827" s="2"/>
+        <v>1598</v>
+      </c>
+      <c r="C827" s="2" t="s">
+        <v>3020</v>
+      </c>
     </row>
     <row r="828" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A828" s="1" t="s">
-        <v>1287</v>
+        <v>1295</v>
       </c>
       <c r="B828" s="2" t="s">
-        <v>1604</v>
-      </c>
-      <c r="C828" s="2"/>
+        <v>1597</v>
+      </c>
+      <c r="C828" s="2" t="s">
+        <v>3021</v>
+      </c>
     </row>
     <row r="829" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A829" s="1" t="s">
-        <v>1288</v>
+        <v>1296</v>
       </c>
       <c r="B829" s="2" t="s">
-        <v>1603</v>
+        <v>1596</v>
       </c>
       <c r="C829" s="2"/>
     </row>
     <row r="830" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A830" s="1" t="s">
-        <v>1289</v>
+        <v>1297</v>
       </c>
       <c r="B830" s="2" t="s">
-        <v>1602</v>
-      </c>
-      <c r="C830" s="2"/>
+        <v>1595</v>
+      </c>
+      <c r="C830" s="2" t="s">
+        <v>3022</v>
+      </c>
     </row>
     <row r="831" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A831" s="1" t="s">
-        <v>1290</v>
-      </c>
-      <c r="B831" s="2"/>
-      <c r="C831" s="2"/>
+        <v>1298</v>
+      </c>
+      <c r="B831" s="2" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C831" s="2" t="s">
+        <v>3023</v>
+      </c>
     </row>
     <row r="832" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A832" s="1" t="s">
-        <v>1291</v>
+        <v>1299</v>
       </c>
       <c r="B832" s="2" t="s">
-        <v>1601</v>
-      </c>
-      <c r="C832" s="2"/>
+        <v>1593</v>
+      </c>
+      <c r="C832" s="2" t="s">
+        <v>3024</v>
+      </c>
     </row>
     <row r="833" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A833" s="1" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B833" s="2" t="s">
-        <v>1600</v>
-      </c>
-      <c r="C833" s="2"/>
+        <v>1300</v>
+      </c>
+      <c r="B833" s="2"/>
+      <c r="C833" s="2" t="s">
+        <v>3025</v>
+      </c>
     </row>
     <row r="834" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A834" s="1" t="s">
-        <v>1293</v>
+        <v>1301</v>
       </c>
       <c r="B834" s="2" t="s">
-        <v>1599</v>
-      </c>
-      <c r="C834" s="2"/>
+        <v>1592</v>
+      </c>
+      <c r="C834" s="2" t="s">
+        <v>3026</v>
+      </c>
     </row>
     <row r="835" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A835" s="1" t="s">
-        <v>1294</v>
+        <v>1302</v>
       </c>
       <c r="B835" s="2" t="s">
-        <v>1598</v>
-      </c>
-      <c r="C835" s="2"/>
+        <v>1591</v>
+      </c>
+      <c r="C835" s="2" t="s">
+        <v>3027</v>
+      </c>
     </row>
     <row r="836" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A836" s="1" t="s">
-        <v>1295</v>
+        <v>1303</v>
       </c>
       <c r="B836" s="2" t="s">
-        <v>1597</v>
-      </c>
-      <c r="C836" s="2"/>
+        <v>1590</v>
+      </c>
+      <c r="C836" s="2" t="s">
+        <v>3028</v>
+      </c>
     </row>
     <row r="837" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A837" s="1" t="s">
-        <v>1296</v>
+        <v>1304</v>
       </c>
       <c r="B837" s="2" t="s">
-        <v>1596</v>
-      </c>
-      <c r="C837" s="2"/>
+        <v>1589</v>
+      </c>
+      <c r="C837" s="2" t="s">
+        <v>3029</v>
+      </c>
     </row>
     <row r="838" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A838" s="1" t="s">
-        <v>1297</v>
+        <v>1305</v>
       </c>
       <c r="B838" s="2" t="s">
-        <v>1595</v>
-      </c>
-      <c r="C838" s="2"/>
+        <v>1588</v>
+      </c>
+      <c r="C838" s="2" t="s">
+        <v>3030</v>
+      </c>
     </row>
     <row r="839" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A839" s="1" t="s">
-        <v>1298</v>
+        <v>1306</v>
       </c>
       <c r="B839" s="2" t="s">
-        <v>1594</v>
-      </c>
-      <c r="C839" s="2"/>
+        <v>1587</v>
+      </c>
+      <c r="C839" s="2" t="s">
+        <v>3031</v>
+      </c>
     </row>
     <row r="840" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A840" s="1" t="s">
-        <v>1299</v>
+        <v>1307</v>
       </c>
       <c r="B840" s="2" t="s">
-        <v>1593</v>
-      </c>
-      <c r="C840" s="2"/>
+        <v>1586</v>
+      </c>
+      <c r="C840" s="2" t="s">
+        <v>3032</v>
+      </c>
     </row>
     <row r="841" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A841" s="1" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B841" s="2"/>
-      <c r="C841" s="2"/>
+        <v>1308</v>
+      </c>
+      <c r="B841" s="2" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C841" s="2" t="s">
+        <v>3033</v>
+      </c>
     </row>
     <row r="842" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A842" s="1" t="s">
-        <v>1301</v>
+        <v>1309</v>
       </c>
       <c r="B842" s="2" t="s">
-        <v>1592</v>
-      </c>
-      <c r="C842" s="2"/>
+        <v>1584</v>
+      </c>
+      <c r="C842" s="2" t="s">
+        <v>3034</v>
+      </c>
     </row>
     <row r="843" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A843" s="1" t="s">
-        <v>1302</v>
+        <v>1310</v>
       </c>
       <c r="B843" s="2" t="s">
-        <v>1591</v>
-      </c>
-      <c r="C843" s="2"/>
+        <v>1583</v>
+      </c>
+      <c r="C843" s="2" t="s">
+        <v>3035</v>
+      </c>
     </row>
     <row r="844" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A844" s="1" t="s">
-        <v>1303</v>
+        <v>1311</v>
       </c>
       <c r="B844" s="2" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C844" s="2"/>
+        <v>1570</v>
+      </c>
+      <c r="C844" s="2" t="s">
+        <v>3036</v>
+      </c>
     </row>
     <row r="845" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A845" s="1" t="s">
-        <v>1304</v>
+        <v>1312</v>
       </c>
       <c r="B845" s="2" t="s">
-        <v>1589</v>
-      </c>
-      <c r="C845" s="2"/>
+        <v>1582</v>
+      </c>
+      <c r="C845" s="2" t="s">
+        <v>3037</v>
+      </c>
     </row>
     <row r="846" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A846" s="1" t="s">
-        <v>1305</v>
+        <v>1313</v>
       </c>
       <c r="B846" s="2" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C846" s="2"/>
+        <v>3039</v>
+      </c>
+      <c r="C846" s="2" t="s">
+        <v>3038</v>
+      </c>
     </row>
     <row r="847" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A847" s="1" t="s">
-        <v>1306</v>
+        <v>1314</v>
       </c>
       <c r="B847" s="2" t="s">
-        <v>1587</v>
-      </c>
-      <c r="C847" s="2"/>
+        <v>1581</v>
+      </c>
+      <c r="C847" s="2" t="s">
+        <v>3040</v>
+      </c>
     </row>
     <row r="848" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A848" s="1" t="s">
-        <v>1307</v>
+        <v>1315</v>
       </c>
       <c r="B848" s="2" t="s">
-        <v>1586</v>
-      </c>
-      <c r="C848" s="2"/>
+        <v>1580</v>
+      </c>
+      <c r="C848" s="2" t="s">
+        <v>3041</v>
+      </c>
     </row>
     <row r="849" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A849" s="1" t="s">
-        <v>1308</v>
+        <v>1316</v>
       </c>
       <c r="B849" s="2" t="s">
-        <v>1585</v>
-      </c>
-      <c r="C849" s="2"/>
+        <v>1579</v>
+      </c>
+      <c r="C849" s="2" t="s">
+        <v>3042</v>
+      </c>
     </row>
     <row r="850" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A850" s="1" t="s">
-        <v>1309</v>
+        <v>1317</v>
       </c>
       <c r="B850" s="2" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
       <c r="C850" s="2"/>
     </row>
     <row r="851" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A851" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B851" s="2" t="s">
-        <v>1583</v>
-      </c>
-      <c r="C851" s="2"/>
+        <v>1318</v>
+      </c>
+      <c r="B851" s="2"/>
+      <c r="C851" s="2" t="s">
+        <v>3043</v>
+      </c>
     </row>
     <row r="852" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A852" s="1" t="s">
-        <v>1311</v>
+        <v>1319</v>
       </c>
       <c r="B852" s="2" t="s">
-        <v>1570</v>
-      </c>
-      <c r="C852" s="2"/>
+        <v>1577</v>
+      </c>
+      <c r="C852" s="2" t="s">
+        <v>3044</v>
+      </c>
     </row>
     <row r="853" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A853" s="1" t="s">
-        <v>1312</v>
+        <v>1320</v>
       </c>
       <c r="B853" s="2" t="s">
-        <v>1582</v>
-      </c>
-      <c r="C853" s="2"/>
+        <v>1576</v>
+      </c>
+      <c r="C853" s="2" t="s">
+        <v>3045</v>
+      </c>
     </row>
     <row r="854" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A854" s="1" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B854" s="2"/>
+        <v>1321</v>
+      </c>
+      <c r="B854" s="2" t="s">
+        <v>1575</v>
+      </c>
       <c r="C854" s="2"/>
     </row>
     <row r="855" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A855" s="1" t="s">
-        <v>1314</v>
+        <v>1322</v>
       </c>
       <c r="B855" s="2" t="s">
-        <v>1581</v>
-      </c>
-      <c r="C855" s="2"/>
+        <v>1574</v>
+      </c>
+      <c r="C855" s="2" t="s">
+        <v>3046</v>
+      </c>
     </row>
     <row r="856" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A856" s="1" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B856" s="2" t="s">
-        <v>1580</v>
-      </c>
-      <c r="C856" s="2"/>
+        <v>1323</v>
+      </c>
+      <c r="B856" s="2"/>
+      <c r="C856" s="2" t="s">
+        <v>3047</v>
+      </c>
     </row>
     <row r="857" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A857" s="1" t="s">
-        <v>1316</v>
+        <v>1324</v>
       </c>
       <c r="B857" s="2" t="s">
-        <v>1579</v>
-      </c>
-      <c r="C857" s="2"/>
+        <v>1573</v>
+      </c>
+      <c r="C857" s="2" t="s">
+        <v>3048</v>
+      </c>
     </row>
     <row r="858" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A858" s="1" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B858" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C858" s="2"/>
+        <v>1325</v>
+      </c>
+      <c r="B858" s="2"/>
+      <c r="C858" s="2" t="s">
+        <v>3049</v>
+      </c>
     </row>
     <row r="859" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A859" s="1" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B859" s="2"/>
-      <c r="C859" s="2"/>
+        <v>1326</v>
+      </c>
+      <c r="B859" s="2" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C859" s="2" t="s">
+        <v>3050</v>
+      </c>
     </row>
     <row r="860" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A860" s="1" t="s">
-        <v>1319</v>
+        <v>1327</v>
       </c>
       <c r="B860" s="2" t="s">
-        <v>1577</v>
-      </c>
-      <c r="C860" s="2"/>
+        <v>1571</v>
+      </c>
+      <c r="C860" s="2" t="s">
+        <v>3051</v>
+      </c>
     </row>
     <row r="861" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A861" s="1" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B861" s="2" t="s">
-        <v>1576</v>
-      </c>
-      <c r="C861" s="2"/>
+        <v>1328</v>
+      </c>
+      <c r="B861" s="2"/>
+      <c r="C861" s="2" t="s">
+        <v>3052</v>
+      </c>
     </row>
     <row r="862" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A862" s="1" t="s">
-        <v>1321</v>
+        <v>1329</v>
       </c>
       <c r="B862" s="2" t="s">
-        <v>1575</v>
-      </c>
-      <c r="C862" s="2"/>
+        <v>1570</v>
+      </c>
+      <c r="C862" s="2" t="s">
+        <v>3036</v>
+      </c>
     </row>
     <row r="863" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A863" s="1" t="s">
-        <v>1322</v>
+        <v>1330</v>
       </c>
       <c r="B863" s="2" t="s">
-        <v>1574</v>
-      </c>
-      <c r="C863" s="2"/>
+        <v>1569</v>
+      </c>
+      <c r="C863" s="2" t="s">
+        <v>3053</v>
+      </c>
     </row>
     <row r="864" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A864" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B864" s="2"/>
-      <c r="C864" s="2"/>
+        <v>1331</v>
+      </c>
+      <c r="B864" s="2" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C864" s="2" t="s">
+        <v>3054</v>
+      </c>
     </row>
     <row r="865" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A865" s="1" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B865" s="2" t="s">
-        <v>1573</v>
-      </c>
-      <c r="C865" s="2"/>
+        <v>1332</v>
+      </c>
+      <c r="B865" s="2"/>
+      <c r="C865" s="2" t="s">
+        <v>3055</v>
+      </c>
     </row>
     <row r="866" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A866" s="1" t="s">
-        <v>1325</v>
-      </c>
-      <c r="B866" s="2"/>
-      <c r="C866" s="2"/>
+        <v>1333</v>
+      </c>
+      <c r="B866" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C866" s="2" t="s">
+        <v>3056</v>
+      </c>
     </row>
     <row r="867" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A867" s="1" t="s">
-        <v>1326</v>
+        <v>1334</v>
       </c>
       <c r="B867" s="2" t="s">
-        <v>1572</v>
-      </c>
-      <c r="C867" s="2"/>
+        <v>1566</v>
+      </c>
+      <c r="C867" s="2" t="s">
+        <v>3057</v>
+      </c>
     </row>
     <row r="868" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A868" s="1" t="s">
-        <v>1327</v>
+        <v>1335</v>
       </c>
       <c r="B868" s="2" t="s">
-        <v>1571</v>
+        <v>1565</v>
       </c>
       <c r="C868" s="2"/>
     </row>
     <row r="869" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A869" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="B869" s="2"/>
-      <c r="C869" s="2"/>
+        <v>1336</v>
+      </c>
+      <c r="B869" s="2" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C869" s="2" t="s">
+        <v>3058</v>
+      </c>
     </row>
     <row r="870" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A870" s="1" t="s">
-        <v>1329</v>
+        <v>1337</v>
       </c>
       <c r="B870" s="2" t="s">
-        <v>1570</v>
-      </c>
-      <c r="C870" s="2"/>
+        <v>1563</v>
+      </c>
+      <c r="C870" s="2" t="s">
+        <v>3059</v>
+      </c>
     </row>
     <row r="871" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A871" s="1" t="s">
-        <v>1330</v>
-      </c>
-      <c r="B871" s="2" t="s">
-        <v>1569</v>
-      </c>
+        <v>1338</v>
+      </c>
+      <c r="B871" s="2"/>
       <c r="C871" s="2"/>
     </row>
     <row r="872" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A872" s="1" t="s">
-        <v>1331</v>
+        <v>1339</v>
       </c>
       <c r="B872" s="2" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C872" s="2"/>
+        <v>617</v>
+      </c>
+      <c r="C872" s="2" t="s">
+        <v>3060</v>
+      </c>
     </row>
     <row r="873" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A873" s="1" t="s">
-        <v>1332</v>
+        <v>1340</v>
       </c>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
     </row>
     <row r="874" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A874" s="1" t="s">
-        <v>1333</v>
+        <v>1341</v>
       </c>
       <c r="B874" s="2" t="s">
-        <v>1567</v>
-      </c>
-      <c r="C874" s="2"/>
+        <v>1562</v>
+      </c>
+      <c r="C874" s="2" t="s">
+        <v>3061</v>
+      </c>
     </row>
     <row r="875" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A875" s="1" t="s">
-        <v>1334</v>
+        <v>1342</v>
       </c>
       <c r="B875" s="2" t="s">
-        <v>1566</v>
-      </c>
-      <c r="C875" s="2"/>
+        <v>1561</v>
+      </c>
+      <c r="C875" s="2" t="s">
+        <v>3062</v>
+      </c>
     </row>
     <row r="876" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A876" s="1" t="s">
-        <v>1335</v>
+        <v>1343</v>
       </c>
       <c r="B876" s="2" t="s">
-        <v>1565</v>
-      </c>
-      <c r="C876" s="2"/>
+        <v>1560</v>
+      </c>
+      <c r="C876" s="2" t="s">
+        <v>3063</v>
+      </c>
     </row>
     <row r="877" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A877" s="1" t="s">
-        <v>1336</v>
+        <v>1344</v>
       </c>
       <c r="B877" s="2" t="s">
-        <v>1564</v>
-      </c>
-      <c r="C877" s="2"/>
+        <v>1559</v>
+      </c>
+      <c r="C877" s="2" t="s">
+        <v>3064</v>
+      </c>
     </row>
     <row r="878" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A878" s="1" t="s">
-        <v>1337</v>
+        <v>1345</v>
       </c>
       <c r="B878" s="2" t="s">
-        <v>1563</v>
-      </c>
-      <c r="C878" s="2"/>
+        <v>1558</v>
+      </c>
+      <c r="C878" s="2" t="s">
+        <v>3065</v>
+      </c>
     </row>
     <row r="879" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A879" s="1" t="s">
-        <v>1338</v>
-      </c>
-      <c r="B879" s="2"/>
-      <c r="C879" s="2"/>
+        <v>1346</v>
+      </c>
+      <c r="B879" s="2" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C879" s="2" t="s">
+        <v>3066</v>
+      </c>
     </row>
     <row r="880" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A880" s="1" t="s">
-        <v>1339</v>
+        <v>1347</v>
       </c>
       <c r="B880" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="C880" s="2"/>
+        <v>1556</v>
+      </c>
+      <c r="C880" s="2" t="s">
+        <v>3067</v>
+      </c>
     </row>
     <row r="881" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A881" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="B881" s="2"/>
-      <c r="C881" s="2"/>
+        <v>1348</v>
+      </c>
+      <c r="B881" s="2" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C881" s="2" t="s">
+        <v>3068</v>
+      </c>
     </row>
     <row r="882" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A882" s="1" t="s">
-        <v>1341</v>
+        <v>1349</v>
       </c>
       <c r="B882" s="2" t="s">
-        <v>1562</v>
-      </c>
-      <c r="C882" s="2"/>
+        <v>1554</v>
+      </c>
+      <c r="C882" s="2" t="s">
+        <v>3069</v>
+      </c>
     </row>
     <row r="883" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A883" s="1" t="s">
-        <v>1342</v>
+        <v>1350</v>
       </c>
       <c r="B883" s="2" t="s">
-        <v>1561</v>
+        <v>1553</v>
       </c>
       <c r="C883" s="2"/>
     </row>
     <row r="884" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A884" s="1" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B884" s="2" t="s">
-        <v>1560</v>
-      </c>
-      <c r="C884" s="2"/>
+        <v>1351</v>
+      </c>
+      <c r="B884" s="2"/>
+      <c r="C884" s="2" t="s">
+        <v>3070</v>
+      </c>
     </row>
     <row r="885" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A885" s="1" t="s">
-        <v>1344</v>
+        <v>1352</v>
       </c>
       <c r="B885" s="2" t="s">
-        <v>1559</v>
+        <v>1552</v>
       </c>
       <c r="C885" s="2"/>
     </row>
     <row r="886" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A886" s="1" t="s">
-        <v>1345</v>
+        <v>1353</v>
       </c>
       <c r="B886" s="2" t="s">
-        <v>1558</v>
-      </c>
-      <c r="C886" s="2"/>
+        <v>1551</v>
+      </c>
+      <c r="C886" s="2" t="s">
+        <v>3071</v>
+      </c>
     </row>
     <row r="887" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A887" s="1" t="s">
-        <v>1346</v>
+        <v>1354</v>
       </c>
       <c r="B887" s="2" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C887" s="2"/>
+        <v>1550</v>
+      </c>
+      <c r="C887" s="2" t="s">
+        <v>3072</v>
+      </c>
     </row>
     <row r="888" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A888" s="1" t="s">
-        <v>1347</v>
+        <v>1355</v>
       </c>
       <c r="B888" s="2" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C888" s="2"/>
+        <v>1549</v>
+      </c>
+      <c r="C888" s="2" t="s">
+        <v>3073</v>
+      </c>
     </row>
     <row r="889" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A889" s="1" t="s">
-        <v>1348</v>
+        <v>1358</v>
       </c>
       <c r="B889" s="2" t="s">
-        <v>1555</v>
-      </c>
-      <c r="C889" s="2"/>
+        <v>1548</v>
+      </c>
+      <c r="C889" s="2" t="s">
+        <v>3074</v>
+      </c>
     </row>
     <row r="890" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A890" s="1" t="s">
-        <v>1349</v>
+        <v>1359</v>
       </c>
       <c r="B890" s="2" t="s">
-        <v>1554</v>
-      </c>
-      <c r="C890" s="2"/>
+        <v>1547</v>
+      </c>
+      <c r="C890" s="2" t="s">
+        <v>3075</v>
+      </c>
     </row>
     <row r="891" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A891" s="1" t="s">
-        <v>1350</v>
+        <v>1360</v>
       </c>
       <c r="B891" s="2" t="s">
-        <v>1553</v>
-      </c>
-      <c r="C891" s="2"/>
+        <v>1546</v>
+      </c>
+      <c r="C891" s="2" t="s">
+        <v>3076</v>
+      </c>
     </row>
     <row r="892" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A892" s="1" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B892" s="2"/>
-      <c r="C892" s="2"/>
+        <v>1361</v>
+      </c>
+      <c r="B892" s="2" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C892" s="2" t="s">
+        <v>3077</v>
+      </c>
     </row>
     <row r="893" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A893" s="1" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B893" s="2" t="s">
-        <v>1552</v>
-      </c>
-      <c r="C893" s="2"/>
+        <v>1362</v>
+      </c>
+      <c r="B893" s="2"/>
+      <c r="C893" s="2" t="s">
+        <v>2948</v>
+      </c>
     </row>
     <row r="894" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A894" s="1" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B894" s="2" t="s">
-        <v>1551</v>
-      </c>
-      <c r="C894" s="2"/>
+        <v>1363</v>
+      </c>
+      <c r="B894" s="2"/>
+      <c r="C894" s="2" t="s">
+        <v>3078</v>
+      </c>
     </row>
     <row r="895" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A895" s="1" t="s">
-        <v>1354</v>
+        <v>1364</v>
       </c>
       <c r="B895" s="2" t="s">
-        <v>1550</v>
-      </c>
-      <c r="C895" s="2"/>
+        <v>1544</v>
+      </c>
+      <c r="C895" s="2" t="s">
+        <v>3079</v>
+      </c>
     </row>
     <row r="896" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A896" s="1" t="s">
-        <v>1355</v>
+        <v>1365</v>
       </c>
       <c r="B896" s="2" t="s">
-        <v>1549</v>
-      </c>
-      <c r="C896" s="2"/>
+        <v>1543</v>
+      </c>
+      <c r="C896" s="2" t="s">
+        <v>3080</v>
+      </c>
     </row>
     <row r="897" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A897" s="1" t="s">
-        <v>1356</v>
-      </c>
-      <c r="B897" s="2"/>
-      <c r="C897" s="2"/>
-    </row>
-    <row r="898" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A898" s="1" t="s">
-        <v>1357</v>
-      </c>
-      <c r="B898" s="2"/>
-      <c r="C898" s="2"/>
-    </row>
-    <row r="899" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A899" s="1" t="s">
-        <v>1358</v>
-      </c>
-      <c r="B899" s="2" t="s">
-        <v>1548</v>
-      </c>
-      <c r="C899" s="2"/>
-    </row>
-    <row r="900" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A900" s="1" t="s">
-        <v>1359</v>
-      </c>
-      <c r="B900" s="2" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C900" s="2"/>
-    </row>
-    <row r="901" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A901" s="1" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B901" s="2" t="s">
-        <v>1546</v>
-      </c>
-      <c r="C901" s="2"/>
-    </row>
-    <row r="902" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A902" s="1" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B902" s="2" t="s">
-        <v>1545</v>
-      </c>
-      <c r="C902" s="2"/>
-    </row>
-    <row r="903" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A903" s="1" t="s">
-        <v>1362</v>
-      </c>
-      <c r="B903" s="2"/>
-      <c r="C903" s="2"/>
-    </row>
-    <row r="904" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A904" s="1" t="s">
-        <v>1363</v>
-      </c>
-      <c r="B904" s="2"/>
-      <c r="C904" s="2"/>
-    </row>
-    <row r="905" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A905" s="1" t="s">
-        <v>1364</v>
-      </c>
-      <c r="B905" s="2" t="s">
-        <v>1544</v>
-      </c>
-      <c r="C905" s="2"/>
-    </row>
-    <row r="906" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A906" s="1" t="s">
-        <v>1365</v>
-      </c>
-      <c r="B906" s="2" t="s">
-        <v>1543</v>
-      </c>
-      <c r="C906" s="2"/>
-    </row>
-    <row r="907" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A907" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="B907" s="2" t="s">
+      <c r="B897" s="2" t="s">
         <v>1542</v>
       </c>
-      <c r="C907" s="2"/>
+      <c r="C897" s="2" t="s">
+        <v>3081</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
